--- a/Lista articulos.xlsx
+++ b/Lista articulos.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/joscanege_alum_us_es/Documents/TFG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/joscanege_alum_us_es/Documents/TFG/TFG_GITT_Joscanege/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{33DBEA54-C1FA-4714-B418-941469707F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67685EBA-CAA7-4A82-AC2B-BDB40554F286}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{33DBEA54-C1FA-4714-B418-941469707F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CA64B95-518B-4431-B0FC-9303B7A1038C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos researchgate" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos generales" sheetId="1" r:id="rId1"/>
     <sheet name="Datos periódicos" sheetId="4" r:id="rId2"/>
     <sheet name="Datos finales" sheetId="7" r:id="rId3"/>
     <sheet name="Cálculos" sheetId="8" r:id="rId4"/>
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Datos finales'!$AF$2:$AF$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Datos generales'!$A$2:$V$212</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Datos periódicos'!$C$1:$Z$310</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Datos researchgate'!$A$2:$V$212</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">'Datos finales'!$AU$95:$BR$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="1132">
   <si>
     <t>TITULO</t>
   </si>
@@ -5496,13 +5496,7 @@
     <t>Economía</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>Biología</t>
-  </si>
-  <si>
-    <t>Quimica</t>
   </si>
   <si>
     <t>Física</t>
@@ -5836,11 +5830,23 @@
   <si>
     <t>8-10</t>
   </si>
+  <si>
+    <t>Chem Dungeon para enseñanzas de Química</t>
+  </si>
+  <si>
+    <t>curso gamificado vr de Química</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6152,7 +6158,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6342,6 +6348,17 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6372,25 +6389,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7396,7 +7405,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cálculos!$B$176:$B$182</c:f>
+              <c:f>Cálculos!$B$175:$B$181</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7425,7 +7434,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cálculos!$D$176:$D$182</c:f>
+              <c:f>Cálculos!$D$175:$D$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7910,7 +7919,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cálculos!$B$190:$B$197</c:f>
+              <c:f>Cálculos!$B$189:$B$196</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7942,12 +7951,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cálculos!$D$190:$D$197</c:f>
+              <c:f>Cálculos!$D$189:$D$196</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -8407,7 +8416,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cálculos!$B$203:$B$209</c:f>
+              <c:f>Cálculos!$B$202:$B$208</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -8436,7 +8445,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cálculos!$D$203:$D$209</c:f>
+              <c:f>Cálculos!$D$202:$D$208</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8447,7 +8456,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
@@ -8546,7 +8555,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Cálculos!$D$216:$D$222</c:f>
+              <c:f>Cálculos!$D$215:$D$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9057,7 +9066,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cálculos!$B$228:$B$232</c:f>
+              <c:f>Cálculos!$B$227:$B$231</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9067,7 +9076,7 @@
                   <c:v>Aleatorio</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Fecha</c:v>
+                  <c:v>Horario</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Género</c:v>
@@ -9080,7 +9089,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cálculos!$C$228:$C$232</c:f>
+              <c:f>Cálculos!$C$227:$C$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9483,7 +9492,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cálculos!$B$274:$B$280</c:f>
+              <c:f>Cálculos!$B$273:$B$279</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -9512,7 +9521,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cálculos!$D$274:$D$280</c:f>
+              <c:f>Cálculos!$D$273:$D$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9971,7 +9980,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cálculos!$B$258:$B$267</c:f>
+              <c:f>Cálculos!$B$257:$B$266</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -10009,7 +10018,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cálculos!$D$258:$D$267</c:f>
+              <c:f>Cálculos!$D$257:$D$266</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10363,7 +10372,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Duración de la experiencia</a:t>
+              <a:t>Duración de las experiencias</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10477,7 +10486,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cálculos!$B$245:$B$251</c:f>
+              <c:f>Cálculos!$B$244:$B$250</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -10506,7 +10515,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cálculos!$D$245:$D$251</c:f>
+              <c:f>Cálculos!$D$244:$D$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10965,7 +10974,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cálculos!$B$287:$B$293</c:f>
+              <c:f>Cálculos!$B$286:$B$292</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -10994,7 +11003,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cálculos!$D$287:$D$293</c:f>
+              <c:f>Cálculos!$D$286:$D$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -15625,9 +15634,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cálculos!$B$148:$B$171</c:f>
+              <c:f>Cálculos!$B$148:$B$170</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Aviación</c:v>
                 </c:pt>
@@ -15689,15 +15698,12 @@
                   <c:v>Psicología</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Quimica</c:v>
+                  <c:v>Química</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Química</c:v>
+                  <c:v>Salud</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Salud</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>Veracidad de la información</c:v>
                 </c:pt>
               </c:strCache>
@@ -15705,10 +15711,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cálculos!$C$148:$C$171</c:f>
+              <c:f>Cálculos!$C$148:$C$170</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -15770,15 +15776,12 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -25624,13 +25627,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>871537</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>957262</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -25660,13 +25663,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>833437</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>919162</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -25696,13 +25699,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>71436</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1019174</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -25732,13 +25735,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>33339</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -25770,13 +25773,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -25806,13 +25809,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -25844,13 +25847,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -25882,13 +25885,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26207,59 +26210,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="81" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="76" t="s">
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="U1" s="74" t="s">
+      <c r="U1" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="V1" s="74" t="s">
+      <c r="V1" s="81" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="75"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="6" t="s">
         <v>222</v>
       </c>
@@ -26296,9 +26299,9 @@
       <c r="S2" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
     </row>
     <row r="3" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -33494,7 +33497,7 @@
   <dimension ref="A1:AC310"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
@@ -33528,80 +33531,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>218</v>
       </c>
       <c r="B1" s="14" t="str">
         <f>"Interesan: "&amp;COUNTIF(F:F,"=Sí")</f>
         <v>Interesan: 69</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="80" t="s">
         <v>571</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="87" t="s">
         <v>346</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="76" t="s">
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="83" t="s">
         <v>224</v>
       </c>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="76" t="s">
+      <c r="Z1" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="AA1" s="78" t="s">
+      <c r="AA1" s="85" t="s">
         <v>361</v>
       </c>
-      <c r="AB1" s="79" t="s">
+      <c r="AB1" s="86" t="s">
         <v>362</v>
       </c>
-      <c r="AC1" s="79" t="s">
+      <c r="AC1" s="86" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="14" t="str">
         <f>"Restantes: " &amp; COUNTIFS(F:F,"=Sí",G:G,"")&amp;"/88"</f>
         <v>Restantes: 0/88</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="6" t="s">
         <v>222</v>
       </c>
@@ -33638,7 +33641,7 @@
       <c r="U2" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="V2" s="77"/>
+      <c r="V2" s="84"/>
       <c r="W2" s="6" t="s">
         <v>353</v>
       </c>
@@ -33648,10 +33651,10 @@
       <c r="Y2" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -48225,9 +48228,9 @@
   </sheetPr>
   <dimension ref="A1:AS108"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK83" sqref="AK83"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48237,127 +48240,127 @@
     <col min="3" max="3" width="4.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="6" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="4.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" customWidth="1"/>
     <col min="29" max="29" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="5.5703125" customWidth="1"/>
+    <col min="30" max="31" width="5.5703125" customWidth="1"/>
+    <col min="42" max="42" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="93" t="s">
         <v>1019</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="83" t="s">
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="V1" s="82" t="s">
+      <c r="V1" s="89" t="s">
         <v>353</v>
       </c>
-      <c r="W1" s="82" t="s">
+      <c r="W1" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="X1" s="82" t="s">
+      <c r="X1" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="Y1" s="83" t="s">
+      <c r="Y1" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="Z1" s="82" t="s">
+      <c r="Z1" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="AA1" s="82" t="s">
+      <c r="AA1" s="89" t="s">
         <v>362</v>
       </c>
-      <c r="AB1" s="82" t="s">
+      <c r="AB1" s="89" t="s">
         <v>364</v>
       </c>
-      <c r="AC1" s="82" t="s">
+      <c r="AC1" s="89" t="s">
         <v>915</v>
       </c>
-      <c r="AD1" s="82" t="s">
+      <c r="AD1" s="89" t="s">
         <v>1015</v>
       </c>
-      <c r="AE1" s="85" t="s">
+      <c r="AE1" s="90" t="s">
         <v>1033</v>
       </c>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
     </row>
     <row r="2" spans="1:43" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="84"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="48" t="s">
         <v>222</v>
       </c>
@@ -48394,22 +48397,22 @@
       <c r="T2" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="83"/>
-      <c r="V2" s="82" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="89" t="s">
         <v>353</v>
       </c>
-      <c r="W2" s="82" t="s">
+      <c r="W2" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="X2" s="82" t="s">
+      <c r="X2" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
       <c r="AE2" s="69"/>
       <c r="AF2" s="70" t="s">
         <v>1030</v>
@@ -48421,7 +48424,7 @@
         <v>1032</v>
       </c>
       <c r="AI2" s="70" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AJ2" s="70" t="s">
         <v>1041</v>
@@ -48430,22 +48433,22 @@
         <v>1037</v>
       </c>
       <c r="AL2" s="70" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AM2" s="70" t="s">
         <v>1070</v>
-      </c>
-      <c r="AM2" s="70" t="s">
-        <v>1072</v>
       </c>
       <c r="AN2" s="70" t="s">
         <v>1048</v>
       </c>
       <c r="AO2" s="70" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AP2" s="70" t="s">
         <v>1035</v>
       </c>
       <c r="AQ2" s="70" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -48730,7 +48733,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C6" s="50">
         <v>2019</v>
@@ -48785,7 +48788,7 @@
         <v>376</v>
       </c>
       <c r="AC6" s="53" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AD6" s="25" t="str">
         <f t="shared" si="0"/>
@@ -49835,12 +49838,9 @@
       <c r="AG17">
         <v>15</v>
       </c>
-      <c r="AH17">
-        <v>1</v>
-      </c>
-      <c r="AI17">
+      <c r="AI17" t="str">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v/>
       </c>
       <c r="AL17">
         <v>1</v>
@@ -50249,7 +50249,7 @@
         <v>1</v>
       </c>
       <c r="AF21" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AG21">
         <v>79</v>
@@ -51564,7 +51564,7 @@
         <v>[68]</v>
       </c>
       <c r="AF35" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AG35">
         <v>160</v>
@@ -51768,7 +51768,7 @@
         <v>14</v>
       </c>
       <c r="AK37" t="s">
-        <v>1054</v>
+        <v>1131</v>
       </c>
       <c r="AL37">
         <v>730</v>
@@ -52162,7 +52162,7 @@
         <v/>
       </c>
       <c r="AS41" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="42" spans="1:45" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -52339,7 +52339,7 @@
         <v>1</v>
       </c>
       <c r="AF43" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AG43">
         <v>18</v>
@@ -52520,7 +52520,7 @@
         <v>[78]</v>
       </c>
       <c r="AF45" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AG45">
         <v>59</v>
@@ -52646,7 +52646,7 @@
         <v>204</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>825</v>
+        <v>1129</v>
       </c>
       <c r="F47" s="51" t="s">
         <v>754</v>
@@ -52703,7 +52703,7 @@
         <v>[80]</v>
       </c>
       <c r="AF47" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AG47">
         <v>50</v>
@@ -53067,7 +53067,7 @@
         <v>[84]</v>
       </c>
       <c r="AF51" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AG51">
         <v>15</v>
@@ -53079,7 +53079,7 @@
         <v>2</v>
       </c>
       <c r="AK51" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AL51">
         <v>28</v>
@@ -53162,7 +53162,7 @@
         <v>[85]</v>
       </c>
       <c r="AF52" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AG52">
         <v>30</v>
@@ -53337,7 +53337,7 @@
         <v>[87]</v>
       </c>
       <c r="AF54" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AI54" t="str">
         <f>IF(AH54&lt;&gt;"", (AR54-AJ54)/(AH54-COUNT(AJ54)),"")</f>
@@ -53345,7 +53345,7 @@
       </c>
       <c r="AK54" s="2"/>
       <c r="AR54" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="55" spans="1:44" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -53423,7 +53423,7 @@
         <v>[88]</v>
       </c>
       <c r="AF55" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AG55">
         <v>41</v>
@@ -54290,7 +54290,7 @@
         <v/>
       </c>
       <c r="AR64" s="71" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="65" spans="1:43" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -54660,7 +54660,7 @@
         <v>[101]</v>
       </c>
       <c r="AF68" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AG68">
         <v>417</v>
@@ -54868,7 +54868,7 @@
         <v>[103]</v>
       </c>
       <c r="AF70" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AG70">
         <v>210</v>
@@ -54974,7 +54974,7 @@
         <v>[104]</v>
       </c>
       <c r="AF71" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AG71">
         <v>81</v>
@@ -55550,7 +55550,7 @@
         <v>[110]</v>
       </c>
       <c r="AF78" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AG78">
         <v>14</v>
@@ -55678,7 +55678,7 @@
         <v>204</v>
       </c>
       <c r="E80" s="51" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F80" s="51" t="s">
         <v>263</v>
@@ -55735,17 +55735,17 @@
         <v>0.38</v>
       </c>
       <c r="AB80" s="52" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AC80" s="52" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AD80" s="25" t="str">
         <f t="shared" si="5"/>
         <v>[112]</v>
       </c>
       <c r="AF80" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AG80">
         <v>76</v>
@@ -56017,7 +56017,7 @@
         <v>[115]</v>
       </c>
       <c r="AF83" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AI83" t="str">
         <f t="shared" si="6"/>
@@ -56242,7 +56242,7 @@
         <v>[117]</v>
       </c>
       <c r="AF86" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AG86">
         <v>24</v>
@@ -56351,7 +56351,7 @@
         <v>[118]</v>
       </c>
       <c r="AF87" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AG87">
         <v>94</v>
@@ -56711,7 +56711,7 @@
         <v>[122]</v>
       </c>
       <c r="AF91" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AG91">
         <v>20</v>
@@ -56804,7 +56804,7 @@
         <v>[123]</v>
       </c>
       <c r="AF92" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AH92">
         <v>2</v>
@@ -56967,7 +56967,7 @@
         <v>[125]</v>
       </c>
       <c r="AF94" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AG94">
         <v>48</v>
@@ -57145,7 +57145,7 @@
         <v>[127]</v>
       </c>
       <c r="AF96" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AG96">
         <v>279</v>
@@ -57316,7 +57316,7 @@
         <v>[129]</v>
       </c>
       <c r="AF98" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AG98">
         <v>92</v>
@@ -57586,7 +57586,7 @@
         <v>[132]</v>
       </c>
       <c r="AF101" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AG101">
         <v>70</v>
@@ -57769,7 +57769,7 @@
         <v>[133]</v>
       </c>
       <c r="AF104" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AG104">
         <v>49</v>
@@ -57894,7 +57894,7 @@
         <v>204</v>
       </c>
       <c r="E106" s="51" t="s">
-        <v>324</v>
+        <v>1130</v>
       </c>
       <c r="F106" s="51" t="s">
         <v>326</v>
@@ -57949,7 +57949,7 @@
         <v>[135]</v>
       </c>
       <c r="AF106" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AG106">
         <v>15</v>
@@ -58072,6 +58072,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="AE1:AQ1"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
@@ -58082,16 +58092,6 @@
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="X1:X2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C3:C107">
@@ -58286,7 +58286,7 @@
     <hyperlink ref="B3" r:id="rId100" display="https://www.webofscience.com/wos/woscc/full-record/WOS:000549890800020" xr:uid="{B9DAE188-1AAA-4720-AD27-763EC821F6FF}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId101"/>
+  <pageSetup paperSize="9" scale="17" fitToHeight="0" orientation="landscape" r:id="rId101"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
@@ -58304,10 +58304,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324D5812-F6FB-481D-9D23-26F727A945F0}">
-  <dimension ref="B2:W334"/>
+  <dimension ref="B2:W333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S296" sqref="S296"/>
+    <sheetView topLeftCell="F28" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58316,9 +58316,8 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="29" width="10.7109375" customWidth="1"/>
+    <col min="7" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="29" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.25">
@@ -59979,7 +59978,7 @@
     </row>
     <row r="136" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B136" s="37" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="139" spans="2:14" ht="45" x14ac:dyDescent="0.25">
@@ -59993,7 +59992,7 @@
         <v>1032</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="G139" s="22" t="s">
         <v>1041</v>
@@ -60002,27 +60001,27 @@
         <v>1037</v>
       </c>
       <c r="I139" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J139" s="22" t="s">
         <v>1070</v>
-      </c>
-      <c r="J139" s="22" t="s">
-        <v>1072</v>
       </c>
       <c r="K139" s="22" t="s">
         <v>1048</v>
       </c>
       <c r="L139" s="22" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M139" s="22" t="s">
         <v>1035</v>
       </c>
       <c r="N139" s="22" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="28" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C140" s="25">
         <f>COUNTIF('Datos finales'!AF3:AF107,"&lt;&gt;")</f>
@@ -60034,11 +60033,11 @@
       </c>
       <c r="E140" s="25">
         <f>COUNT('Datos finales'!AH3:AH107)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F140" s="25">
         <f>COUNT('Datos finales'!AI3:AI107)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G140" s="25">
         <f>COUNT('Datos finales'!AJ3:AJ107)</f>
@@ -60079,50 +60078,50 @@
       </c>
       <c r="C141" s="25"/>
       <c r="D141" s="25">
-        <f>AVERAGE('Datos finales'!AG75:AG107)</f>
-        <v>78.375</v>
+        <f>AVERAGE('Datos finales'!AG3:AG107)</f>
+        <v>98.047058823529412</v>
       </c>
       <c r="E141" s="25">
-        <f>AVERAGE('Datos finales'!AH75:AH107)</f>
-        <v>2</v>
+        <f>AVERAGE('Datos finales'!AH3:AH107)</f>
+        <v>4.387096774193548</v>
       </c>
       <c r="F141" s="25">
-        <f>AVERAGE('Datos finales'!AI75:AI107)</f>
-        <v>27.5</v>
+        <f>AVERAGE('Datos finales'!AI3:AI107)</f>
+        <v>41.207847707847705</v>
       </c>
       <c r="G141" s="25">
-        <f>AVERAGE('Datos finales'!AJ75:AJ107)</f>
-        <v>24.5</v>
+        <f>AVERAGE('Datos finales'!AJ3:AJ107)</f>
+        <v>63.10526315789474</v>
       </c>
       <c r="H141" s="25"/>
       <c r="I141" s="25">
-        <f>AVERAGE('Datos finales'!AL75:AL107)</f>
-        <v>112.57894736842105</v>
+        <f>AVERAGE('Datos finales'!AL3:AL107)</f>
+        <v>96.782608695652172</v>
       </c>
       <c r="J141" s="25">
-        <f>AVERAGE('Datos finales'!AM75:AM107)</f>
-        <v>4.503196347031964</v>
+        <f>AVERAGE('Datos finales'!AM3:AM107)</f>
+        <v>2.3869355657026889</v>
       </c>
       <c r="K141" s="25">
-        <f>AVERAGE('Datos finales'!AN75:AN107)</f>
-        <v>8.3406593406593412</v>
+        <f>AVERAGE('Datos finales'!AN3:AN107)</f>
+        <v>15.153246753246753</v>
       </c>
       <c r="L141" s="25">
-        <f>AVERAGE('Datos finales'!AO75:AO107)</f>
-        <v>77.5</v>
+        <f>AVERAGE('Datos finales'!AO3:AO107)</f>
+        <v>58.382352941176471</v>
       </c>
       <c r="M141" s="25">
-        <f>AVERAGE('Datos finales'!AP75:AP107)</f>
-        <v>8.3406593406593412</v>
+        <f>AVERAGE('Datos finales'!AP3:AP107)</f>
+        <v>11.193121693121693</v>
       </c>
       <c r="N141" s="25">
-        <f>AVERAGE('Datos finales'!AQ75:AQ107)</f>
-        <v>77.5</v>
+        <f>AVERAGE('Datos finales'!AQ3:AQ107)</f>
+        <v>56.617647058823529</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="28" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C142" s="25"/>
       <c r="D142" s="25">
@@ -60169,7 +60168,7 @@
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="28" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C143" s="25"/>
       <c r="D143" s="25">
@@ -60178,7 +60177,7 @@
       </c>
       <c r="E143" s="25">
         <f>MIN('Datos finales'!AH3:AH107)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" s="25">
         <f>MIN('Datos finales'!AI3:AI107)</f>
@@ -60221,10 +60220,10 @@
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="25" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C147" s="25">
-        <f>SUM(C148:C171)</f>
+        <f>SUM(C148:C170)</f>
         <v>100</v>
       </c>
     </row>
@@ -60239,7 +60238,7 @@
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="25" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C149" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B149)</f>
@@ -60257,7 +60256,7 @@
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="25" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C151" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B151)</f>
@@ -60275,7 +60274,7 @@
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="25" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C153" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B153)</f>
@@ -60293,7 +60292,7 @@
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="25" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C155" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B155)</f>
@@ -60302,7 +60301,7 @@
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="25" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C156" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B156)</f>
@@ -60311,7 +60310,7 @@
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="25" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C157" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B157)</f>
@@ -60338,7 +60337,7 @@
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="25" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C160" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B160)</f>
@@ -60347,7 +60346,7 @@
     </row>
     <row r="161" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B161" s="25" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C161" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B161)</f>
@@ -60401,7 +60400,7 @@
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B167" s="25" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C167" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B167)</f>
@@ -60410,1494 +60409,1563 @@
     </row>
     <row r="168" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B168" s="25" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C168" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B168)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B169" s="25" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
       <c r="C169" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B169)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" s="25" t="s">
-        <v>1036</v>
+        <v>1059</v>
       </c>
       <c r="C170" s="25">
         <f>COUNTIF('Datos finales'!AF$3:AF$107,B170)</f>
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="J170" s="46">
+        <v>0</v>
+      </c>
+      <c r="K170" s="28">
+        <v>10</v>
+      </c>
+      <c r="L170" s="28">
+        <v>20</v>
+      </c>
+      <c r="M170" s="28">
+        <v>40</v>
+      </c>
+      <c r="N170" s="28">
+        <v>80</v>
+      </c>
+      <c r="O170" s="28">
+        <v>160</v>
+      </c>
+      <c r="P170" s="28">
+        <v>320</v>
+      </c>
+      <c r="Q170" s="28">
+        <v>640</v>
       </c>
     </row>
     <row r="171" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B171" s="25" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C171" s="25">
-        <f>COUNTIF('Datos finales'!AF$3:AF$107,B171)</f>
+      <c r="J171" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K171" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;J$170,'Datos finales'!$AG:$AG,"&lt;="&amp;K$170,'Datos finales'!$G:$G,"=1")</f>
         <v>1</v>
       </c>
-      <c r="J171" s="46">
-        <v>0</v>
-      </c>
-      <c r="K171" s="28">
+      <c r="L171" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;K$170,'Datos finales'!$AG:$AG,"&lt;="&amp;L$170,'Datos finales'!$G:$G,"=1")</f>
         <v>10</v>
       </c>
-      <c r="L171" s="28">
-        <v>20</v>
-      </c>
-      <c r="M171" s="28">
-        <v>40</v>
-      </c>
-      <c r="N171" s="28">
-        <v>80</v>
-      </c>
-      <c r="O171" s="28">
-        <v>160</v>
-      </c>
-      <c r="P171" s="28">
-        <v>320</v>
-      </c>
-      <c r="Q171" s="28">
-        <v>640</v>
+      <c r="M171" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;L$170,'Datos finales'!$AG:$AG,"&lt;="&amp;M$170,'Datos finales'!$G:$G,"=1")</f>
+        <v>10</v>
+      </c>
+      <c r="N171" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;M$170,'Datos finales'!$AG:$AG,"&lt;="&amp;N$170,'Datos finales'!$G:$G,"=1")</f>
+        <v>23</v>
+      </c>
+      <c r="O171" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;N$170,'Datos finales'!$AG:$AG,"&lt;="&amp;O$170,'Datos finales'!$G:$G,"=1")</f>
+        <v>10</v>
+      </c>
+      <c r="P171" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;O$170,'Datos finales'!$AG:$AG,"&lt;="&amp;P$170,'Datos finales'!$G:$G,"=1")</f>
+        <v>6</v>
+      </c>
+      <c r="Q171" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;P$170,'Datos finales'!$AG:$AG,"&lt;="&amp;Q$170,'Datos finales'!$G:$G,"=1")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J172" s="30" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K172" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;J$171,'Datos finales'!$AG:$AG,"&lt;="&amp;K$171,'Datos finales'!$G:$G,"=1")</f>
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;J$170,'Datos finales'!$AG:$AG,"&lt;="&amp;K$170,'Datos finales'!$G:$G,"=-1")</f>
         <v>1</v>
       </c>
       <c r="L172" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;K$171,'Datos finales'!$AG:$AG,"&lt;="&amp;L$171,'Datos finales'!$G:$G,"=1")</f>
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;K$170,'Datos finales'!$AG:$AG,"&lt;="&amp;L$170,'Datos finales'!$G:$G,"=-1")</f>
+        <v>1</v>
+      </c>
+      <c r="M172" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;L$170,'Datos finales'!$AG:$AG,"&lt;="&amp;M$170,'Datos finales'!$G:$G,"=-1")</f>
+        <v>1</v>
+      </c>
+      <c r="N172" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;M$170,'Datos finales'!$AG:$AG,"&lt;="&amp;N$170,'Datos finales'!$G:$G,"=-1")</f>
+        <v>1</v>
+      </c>
+      <c r="O172" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;N$170,'Datos finales'!$AG:$AG,"&lt;="&amp;O$170,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="P172" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;O$170,'Datos finales'!$AG:$AG,"&lt;="&amp;P$170,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="Q172" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;P$170,'Datos finales'!$AG:$AG,"&lt;="&amp;Q$170,'Datos finales'!$G:$G,"=-1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B173" s="37" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J173" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="K173" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;J$170,'Datos finales'!$AG:$AG,"&lt;="&amp;K$170,'Datos finales'!$G:$G,"=0")</f>
+        <v>1</v>
+      </c>
+      <c r="L173" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;K$170,'Datos finales'!$AG:$AG,"&lt;="&amp;L$170,'Datos finales'!$G:$G,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="M173" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;L$170,'Datos finales'!$AG:$AG,"&lt;="&amp;M$170,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="N173" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;M$170,'Datos finales'!$AG:$AG,"&lt;="&amp;N$170,'Datos finales'!$G:$G,"=0")</f>
+        <v>4</v>
+      </c>
+      <c r="O173" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;N$170,'Datos finales'!$AG:$AG,"&lt;="&amp;O$170,'Datos finales'!$G:$G,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="P173" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;O$170,'Datos finales'!$AG:$AG,"&lt;="&amp;P$170,'Datos finales'!$G:$G,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="Q173" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;P$170,'Datos finales'!$AG:$AG,"&lt;="&amp;Q$170,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B174" s="28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J174" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K174" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;J$170,'Datos finales'!$AG:$AG,"&lt;="&amp;K$170,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="L174" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;K$170,'Datos finales'!$AG:$AG,"&lt;="&amp;L$170,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="M174" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;L$170,'Datos finales'!$AG:$AG,"&lt;="&amp;M$170,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>2</v>
+      </c>
+      <c r="N174" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;M$170,'Datos finales'!$AG:$AG,"&lt;="&amp;N$170,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="O174" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;N$170,'Datos finales'!$AG:$AG,"&lt;="&amp;O$170,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="P174" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;O$170,'Datos finales'!$AG:$AG,"&lt;="&amp;P$170,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="Q174" s="20">
+        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;P$170,'Datos finales'!$AG:$AG,"&lt;="&amp;Q$170,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B175" s="25" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C175" s="25">
         <v>10</v>
       </c>
-      <c r="M172" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;L$171,'Datos finales'!$AG:$AG,"&lt;="&amp;M$171,'Datos finales'!$G:$G,"=1")</f>
-        <v>10</v>
-      </c>
-      <c r="N172" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;M$171,'Datos finales'!$AG:$AG,"&lt;="&amp;N$171,'Datos finales'!$G:$G,"=1")</f>
-        <v>23</v>
-      </c>
-      <c r="O172" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;N$171,'Datos finales'!$AG:$AG,"&lt;="&amp;O$171,'Datos finales'!$G:$G,"=1")</f>
-        <v>10</v>
-      </c>
-      <c r="P172" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;O$171,'Datos finales'!$AG:$AG,"&lt;="&amp;P$171,'Datos finales'!$G:$G,"=1")</f>
-        <v>6</v>
-      </c>
-      <c r="Q172" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;P$171,'Datos finales'!$AG:$AG,"&lt;="&amp;Q$171,'Datos finales'!$G:$G,"=1")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J173" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K173" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;J$171,'Datos finales'!$AG:$AG,"&lt;="&amp;K$171,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
-      <c r="L173" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;K$171,'Datos finales'!$AG:$AG,"&lt;="&amp;L$171,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
-      <c r="M173" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;L$171,'Datos finales'!$AG:$AG,"&lt;="&amp;M$171,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
-      <c r="N173" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;M$171,'Datos finales'!$AG:$AG,"&lt;="&amp;N$171,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
-      <c r="O173" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;N$171,'Datos finales'!$AG:$AG,"&lt;="&amp;O$171,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="P173" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;O$171,'Datos finales'!$AG:$AG,"&lt;="&amp;P$171,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="Q173" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;P$171,'Datos finales'!$AG:$AG,"&lt;="&amp;Q$171,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B174" s="37" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J174" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K174" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;J$171,'Datos finales'!$AG:$AG,"&lt;="&amp;K$171,'Datos finales'!$G:$G,"=0")</f>
-        <v>1</v>
-      </c>
-      <c r="L174" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;K$171,'Datos finales'!$AG:$AG,"&lt;="&amp;L$171,'Datos finales'!$G:$G,"=0")</f>
-        <v>2</v>
-      </c>
-      <c r="M174" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;L$171,'Datos finales'!$AG:$AG,"&lt;="&amp;M$171,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="N174" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;M$171,'Datos finales'!$AG:$AG,"&lt;="&amp;N$171,'Datos finales'!$G:$G,"=0")</f>
-        <v>4</v>
-      </c>
-      <c r="O174" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;N$171,'Datos finales'!$AG:$AG,"&lt;="&amp;O$171,'Datos finales'!$G:$G,"=0")</f>
-        <v>2</v>
-      </c>
-      <c r="P174" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;O$171,'Datos finales'!$AG:$AG,"&lt;="&amp;P$171,'Datos finales'!$G:$G,"=0")</f>
-        <v>2</v>
-      </c>
-      <c r="Q174" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;P$171,'Datos finales'!$AG:$AG,"&lt;="&amp;Q$171,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B175" s="28" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C175" s="28" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D175" s="28" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J175" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K175" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;J$171,'Datos finales'!$AG:$AG,"&lt;="&amp;K$171,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="L175" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;K$171,'Datos finales'!$AG:$AG,"&lt;="&amp;L$171,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="M175" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;L$171,'Datos finales'!$AG:$AG,"&lt;="&amp;M$171,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>2</v>
-      </c>
-      <c r="N175" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;M$171,'Datos finales'!$AG:$AG,"&lt;="&amp;N$171,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="O175" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;N$171,'Datos finales'!$AG:$AG,"&lt;="&amp;O$171,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>1</v>
-      </c>
-      <c r="P175" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;O$171,'Datos finales'!$AG:$AG,"&lt;="&amp;P$171,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="Q175" s="20">
-        <f>COUNTIFS('Datos finales'!$AG:$AG,"&gt;"&amp;P$171,'Datos finales'!$AG:$AG,"&lt;="&amp;Q$171,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
+      <c r="D175" s="25" cm="1">
+        <f t="array" ref="D175:D182">FREQUENCY('Datos finales'!AG3:AG107,Cálculos!C175:C181)</f>
+        <v>3</v>
+      </c>
+      <c r="K175" cm="1">
+        <f t="array" ref="K175:Q175">TRANSPOSE(D175:D181)</f>
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>13</v>
+      </c>
+      <c r="M175">
+        <v>13</v>
+      </c>
+      <c r="N175">
+        <v>28</v>
+      </c>
+      <c r="O175">
+        <v>13</v>
+      </c>
+      <c r="P175">
+        <v>8</v>
+      </c>
+      <c r="Q175">
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B176" s="25" t="s">
-        <v>1123</v>
+      <c r="B176" s="75" t="s">
+        <v>1103</v>
       </c>
       <c r="C176" s="25">
-        <v>10</v>
-      </c>
-      <c r="D176" s="25" cm="1">
-        <f t="array" ref="D176:D183">FREQUENCY('Datos finales'!AG3:AG107,Cálculos!C176:C182)</f>
-        <v>3</v>
-      </c>
-      <c r="K176" cm="1">
-        <f t="array" ref="K176:Q176">TRANSPOSE(D176:D182)</f>
-        <v>3</v>
-      </c>
-      <c r="L176">
+        <v>20</v>
+      </c>
+      <c r="D176" s="25">
         <v>13</v>
       </c>
-      <c r="M176">
-        <v>13</v>
-      </c>
-      <c r="N176">
-        <v>28</v>
-      </c>
-      <c r="O176">
-        <v>13</v>
-      </c>
-      <c r="P176">
-        <v>8</v>
-      </c>
-      <c r="Q176">
-        <v>7</v>
+      <c r="K176" s="25" t="str" cm="1">
+        <f t="array" ref="K176:Q176">TRANSPOSE(B175:B181)</f>
+        <v>0-10</v>
+      </c>
+      <c r="L176" s="25" t="str">
+        <v>11-20</v>
+      </c>
+      <c r="M176" s="25" t="str">
+        <v>21-40</v>
+      </c>
+      <c r="N176" s="25" t="str">
+        <v>41-80</v>
+      </c>
+      <c r="O176" s="25" t="str">
+        <v>81-160</v>
+      </c>
+      <c r="P176" s="25" t="str">
+        <v>161-320</v>
+      </c>
+      <c r="Q176" s="25" t="str">
+        <v>321-640</v>
       </c>
     </row>
     <row r="177" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B177" s="89" t="s">
-        <v>1105</v>
+      <c r="B177" s="25" t="s">
+        <v>1122</v>
       </c>
       <c r="C177" s="25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D177" s="25">
         <v>13</v>
       </c>
+      <c r="J177" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K177" s="79">
+        <f>K171/K$175</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L177" s="79">
+        <f t="shared" ref="L177:Q177" si="23">L171/L$175</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="M177" s="79">
+        <f t="shared" si="23"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="N177" s="79">
+        <f t="shared" si="23"/>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="O177" s="79">
+        <f t="shared" si="23"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="P177" s="79">
+        <f t="shared" si="23"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q177" s="79">
+        <f t="shared" si="23"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="178" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B178" s="25" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C178" s="25">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D178" s="25">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J178" s="30" t="s">
-        <v>890</v>
-      </c>
-      <c r="K178" s="21">
-        <f>K172/K$176</f>
+        <v>891</v>
+      </c>
+      <c r="K178" s="79">
+        <f t="shared" ref="K178:Q178" si="24">K172/K$175</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L178" s="21">
-        <f t="shared" ref="L178:Q178" si="23">L172/L$176</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="M178" s="21">
-        <f t="shared" si="23"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="N178" s="21">
-        <f t="shared" si="23"/>
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="O178" s="21">
-        <f t="shared" si="23"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="P178" s="21">
-        <f t="shared" si="23"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q178" s="21">
-        <f t="shared" si="23"/>
-        <v>0.8571428571428571</v>
+      <c r="L178" s="79">
+        <f t="shared" si="24"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M178" s="79">
+        <f t="shared" si="24"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="N178" s="79">
+        <f t="shared" si="24"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O178" s="79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P178" s="79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q178" s="79">
+        <f t="shared" si="24"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="179" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B179" s="25" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C179" s="25">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D179" s="25">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J179" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K179" s="21">
-        <f t="shared" ref="K179:Q179" si="24">K173/K$176</f>
+        <v>892</v>
+      </c>
+      <c r="K179" s="79">
+        <f t="shared" ref="K179:Q179" si="25">K173/K$175</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L179" s="21">
-        <f t="shared" si="24"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="M179" s="21">
-        <f t="shared" si="24"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="N179" s="21">
-        <f t="shared" si="24"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="O179" s="21">
-        <f t="shared" si="24"/>
+      <c r="L179" s="79">
+        <f t="shared" si="25"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="M179" s="79">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="P179" s="21">
-        <f t="shared" si="24"/>
+      <c r="N179" s="79">
+        <f t="shared" si="25"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O179" s="79">
+        <f t="shared" si="25"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="P179" s="79">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q179" s="79">
+        <f t="shared" si="25"/>
         <v>0</v>
-      </c>
-      <c r="Q179" s="21">
-        <f t="shared" si="24"/>
-        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="180" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B180" s="25" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C180" s="25">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D180" s="25">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J180" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K180" s="21">
-        <f t="shared" ref="K180:Q180" si="25">K174/K$176</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L180" s="21">
-        <f t="shared" si="25"/>
+        <v>895</v>
+      </c>
+      <c r="K180" s="79">
+        <f t="shared" ref="K180:Q180" si="26">K174/K$175</f>
+        <v>0</v>
+      </c>
+      <c r="L180" s="79">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M180" s="79">
+        <f t="shared" si="26"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="M180" s="21">
-        <f t="shared" si="25"/>
+      <c r="N180" s="79">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N180" s="21">
-        <f t="shared" si="25"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="O180" s="21">
-        <f t="shared" si="25"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="P180" s="21">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q180" s="21">
-        <f t="shared" si="25"/>
+      <c r="O180" s="79">
+        <f t="shared" si="26"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="P180" s="79">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q180" s="79">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B181" s="25" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C181" s="25">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="D181" s="25">
-        <v>8</v>
-      </c>
-      <c r="J181" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K181" s="21">
-        <f t="shared" ref="K181:Q181" si="26">K175/K$176</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C182" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D182" s="25">
         <v>0</v>
       </c>
-      <c r="L181" s="21">
-        <f t="shared" si="26"/>
+    </row>
+    <row r="183" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D183">
+        <f>SUM(D175:D181)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="187" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="B187" s="37" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="188" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B188" s="28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C188" s="28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J188" s="46">
         <v>0</v>
       </c>
-      <c r="M181" s="21">
-        <f t="shared" si="26"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="N181" s="21">
-        <f t="shared" si="26"/>
+      <c r="K188" s="28" cm="1">
+        <f t="array" ref="K188:R188">TRANSPOSE(C189:C196)</f>
+        <v>2</v>
+      </c>
+      <c r="L188" s="28">
+        <v>3</v>
+      </c>
+      <c r="M188" s="28">
+        <v>4</v>
+      </c>
+      <c r="N188" s="28">
+        <v>5</v>
+      </c>
+      <c r="O188" s="28">
+        <v>10</v>
+      </c>
+      <c r="P188" s="28">
+        <v>15</v>
+      </c>
+      <c r="Q188" s="28">
+        <v>20</v>
+      </c>
+      <c r="R188" s="28">
+        <v>30</v>
+      </c>
+      <c r="S188" s="46"/>
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B189" s="25">
+        <v>2</v>
+      </c>
+      <c r="C189" s="25">
+        <v>2</v>
+      </c>
+      <c r="D189" s="25" cm="1">
+        <f t="array" ref="D189:D197">FREQUENCY('Datos finales'!AH3:AH107,Cálculos!C189:C196)</f>
+        <v>18</v>
+      </c>
+      <c r="J189" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K189" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;J$188,'Datos finales'!$AH:$AH,"&lt;="&amp;K$188,'Datos finales'!$G:$G,"=1")</f>
+        <v>14</v>
+      </c>
+      <c r="L189" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;K$188,'Datos finales'!$AH:$AH,"&lt;="&amp;L$188,'Datos finales'!$G:$G,"=1")</f>
+        <v>4</v>
+      </c>
+      <c r="M189" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;L$188,'Datos finales'!$AH:$AH,"&lt;="&amp;M$188,'Datos finales'!$G:$G,"=1")</f>
         <v>0</v>
       </c>
-      <c r="O181" s="21">
-        <f t="shared" si="26"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="P181" s="21">
-        <f t="shared" si="26"/>
+      <c r="N189" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;M$188,'Datos finales'!$AH:$AH,"&lt;="&amp;N$188,'Datos finales'!$G:$G,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="O189" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;N$188,'Datos finales'!$AH:$AH,"&lt;="&amp;O$188,'Datos finales'!$G:$G,"=1")</f>
+        <v>2</v>
+      </c>
+      <c r="P189" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;O$188,'Datos finales'!$AH:$AH,"&lt;="&amp;P$188,'Datos finales'!$G:$G,"=1")</f>
         <v>0</v>
       </c>
-      <c r="Q181" s="21">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B182" s="25" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C182" s="25">
-        <v>640</v>
-      </c>
-      <c r="D182" s="25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C183" s="25" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D183" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D184">
-        <f>SUM(D176:D182)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="188" spans="2:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B188" s="37" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="189" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B189" s="28" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C189" s="28" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D189" s="28" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J189" s="46">
-        <v>0</v>
-      </c>
-      <c r="K189" s="28" cm="1">
-        <f t="array" ref="K189:R189">TRANSPOSE(C190:C197)</f>
-        <v>2</v>
-      </c>
-      <c r="L189" s="28">
-        <v>3</v>
-      </c>
-      <c r="M189" s="28">
-        <v>4</v>
-      </c>
-      <c r="N189" s="28">
-        <v>5</v>
-      </c>
-      <c r="O189" s="28">
-        <v>10</v>
-      </c>
-      <c r="P189" s="28">
-        <v>15</v>
-      </c>
-      <c r="Q189" s="28">
-        <v>20</v>
-      </c>
-      <c r="R189" s="28">
-        <v>30</v>
-      </c>
-      <c r="S189" s="46"/>
+      <c r="Q189" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;P$188,'Datos finales'!$AH:$AH,"&lt;="&amp;Q$188,'Datos finales'!$G:$G,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="R189" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;Q$188,'Datos finales'!$AH:$AH,"&lt;="&amp;R$188,'Datos finales'!$G:$G,"=1")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B190" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C190" s="25">
-        <v>2</v>
-      </c>
-      <c r="D190" s="25" cm="1">
-        <f t="array" ref="D190:D198">FREQUENCY('Datos finales'!AH3:AH107,Cálculos!C190:C197)</f>
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="D190" s="25">
+        <v>6</v>
       </c>
       <c r="J190" s="30" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K190" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;J$189,'Datos finales'!$AH:$AH,"&lt;="&amp;K$189,'Datos finales'!$G:$G,"=1")</f>
-        <v>15</v>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;J$188,'Datos finales'!$AH:$AH,"&lt;="&amp;K$188,'Datos finales'!$G:$G,"=-1")</f>
+        <v>1</v>
       </c>
       <c r="L190" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;K$189,'Datos finales'!$AH:$AH,"&lt;="&amp;L$189,'Datos finales'!$G:$G,"=1")</f>
-        <v>4</v>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;K$188,'Datos finales'!$AH:$AH,"&lt;="&amp;L$188,'Datos finales'!$G:$G,"=-1")</f>
+        <v>1</v>
       </c>
       <c r="M190" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;L$189,'Datos finales'!$AH:$AH,"&lt;="&amp;M$189,'Datos finales'!$G:$G,"=1")</f>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;L$188,'Datos finales'!$AH:$AH,"&lt;="&amp;M$188,'Datos finales'!$G:$G,"=-1")</f>
         <v>0</v>
       </c>
       <c r="N190" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;M$189,'Datos finales'!$AH:$AH,"&lt;="&amp;N$189,'Datos finales'!$G:$G,"=1")</f>
-        <v>1</v>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;M$188,'Datos finales'!$AH:$AH,"&lt;="&amp;N$188,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="O190" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;N$189,'Datos finales'!$AH:$AH,"&lt;="&amp;O$189,'Datos finales'!$G:$G,"=1")</f>
-        <v>2</v>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;N$188,'Datos finales'!$AH:$AH,"&lt;="&amp;O$188,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="P190" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;O$189,'Datos finales'!$AH:$AH,"&lt;="&amp;P$189,'Datos finales'!$G:$G,"=1")</f>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;O$188,'Datos finales'!$AH:$AH,"&lt;="&amp;P$188,'Datos finales'!$G:$G,"=-1")</f>
         <v>0</v>
       </c>
       <c r="Q190" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;P$189,'Datos finales'!$AH:$AH,"&lt;="&amp;Q$189,'Datos finales'!$G:$G,"=1")</f>
-        <v>1</v>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;P$188,'Datos finales'!$AH:$AH,"&lt;="&amp;Q$188,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="R190" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;Q$189,'Datos finales'!$AH:$AH,"&lt;="&amp;R$189,'Datos finales'!$G:$G,"=1")</f>
-        <v>1</v>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;Q$188,'Datos finales'!$AH:$AH,"&lt;="&amp;R$188,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B191" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C191" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D191" s="25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J191" s="30" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K191" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;J$189,'Datos finales'!$AH:$AH,"&lt;="&amp;K$189,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;J$188,'Datos finales'!$AH:$AH,"&lt;="&amp;K$188,'Datos finales'!$G:$G,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="L191" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;K$188,'Datos finales'!$AH:$AH,"&lt;="&amp;L$188,'Datos finales'!$G:$G,"=0")</f>
         <v>1</v>
       </c>
-      <c r="L191" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;K$189,'Datos finales'!$AH:$AH,"&lt;="&amp;L$189,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
       <c r="M191" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;L$189,'Datos finales'!$AH:$AH,"&lt;="&amp;M$189,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;L$188,'Datos finales'!$AH:$AH,"&lt;="&amp;M$188,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="N191" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;M$189,'Datos finales'!$AH:$AH,"&lt;="&amp;N$189,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;M$188,'Datos finales'!$AH:$AH,"&lt;="&amp;N$188,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="O191" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;N$189,'Datos finales'!$AH:$AH,"&lt;="&amp;O$189,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;N$188,'Datos finales'!$AH:$AH,"&lt;="&amp;O$188,'Datos finales'!$G:$G,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="P191" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;O$188,'Datos finales'!$AH:$AH,"&lt;="&amp;P$188,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
-      <c r="P191" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;O$189,'Datos finales'!$AH:$AH,"&lt;="&amp;P$189,'Datos finales'!$G:$G,"=-1")</f>
+      <c r="Q191" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;P$188,'Datos finales'!$AH:$AH,"&lt;="&amp;Q$188,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
-      <c r="Q191" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;P$189,'Datos finales'!$AH:$AH,"&lt;="&amp;Q$189,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
       <c r="R191" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;Q$189,'Datos finales'!$AH:$AH,"&lt;="&amp;R$189,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;Q$188,'Datos finales'!$AH:$AH,"&lt;="&amp;R$188,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B192" s="25">
+        <v>5</v>
+      </c>
+      <c r="C192" s="25">
+        <v>5</v>
+      </c>
+      <c r="D192" s="25">
+        <v>1</v>
+      </c>
+      <c r="J192" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K192" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;J$188,'Datos finales'!$AH:$AH,"&lt;="&amp;K$188,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="L192" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;K$188,'Datos finales'!$AH:$AH,"&lt;="&amp;L$188,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="M192" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;L$188,'Datos finales'!$AH:$AH,"&lt;="&amp;M$188,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="N192" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;M$188,'Datos finales'!$AH:$AH,"&lt;="&amp;N$188,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="O192" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;N$188,'Datos finales'!$AH:$AH,"&lt;="&amp;O$188,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="P192" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;O$188,'Datos finales'!$AH:$AH,"&lt;="&amp;P$188,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="Q192" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;P$188,'Datos finales'!$AH:$AH,"&lt;="&amp;Q$188,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="R192" s="20">
+        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;Q$188,'Datos finales'!$AH:$AH,"&lt;="&amp;R$188,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B193" s="25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C193" s="25">
+        <v>10</v>
+      </c>
+      <c r="D193" s="25">
         <v>4</v>
       </c>
-      <c r="C192" s="25">
+      <c r="K193" cm="1">
+        <f t="array" ref="K193:R193">TRANSPOSE(D189:D196)</f>
+        <v>18</v>
+      </c>
+      <c r="L193">
+        <v>6</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
         <v>4</v>
       </c>
-      <c r="D192" s="25">
+      <c r="P193">
         <v>0</v>
       </c>
-      <c r="J192" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K192" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;J$189,'Datos finales'!$AH:$AH,"&lt;="&amp;K$189,'Datos finales'!$G:$G,"=0")</f>
-        <v>2</v>
-      </c>
-      <c r="L192" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;K$189,'Datos finales'!$AH:$AH,"&lt;="&amp;L$189,'Datos finales'!$G:$G,"=0")</f>
+      <c r="Q193">
         <v>1</v>
       </c>
-      <c r="M192" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;L$189,'Datos finales'!$AH:$AH,"&lt;="&amp;M$189,'Datos finales'!$G:$G,"=0")</f>
+      <c r="R193">
+        <v>1</v>
+      </c>
+      <c r="U193">
+        <f t="shared" ref="U193:W193" si="27">H189</f>
         <v>0</v>
       </c>
-      <c r="N192" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;M$189,'Datos finales'!$AH:$AH,"&lt;="&amp;N$189,'Datos finales'!$G:$G,"=0")</f>
+      <c r="V193">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="O192" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;N$189,'Datos finales'!$AH:$AH,"&lt;="&amp;O$189,'Datos finales'!$G:$G,"=0")</f>
-        <v>2</v>
-      </c>
-      <c r="P192" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;O$189,'Datos finales'!$AH:$AH,"&lt;="&amp;P$189,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="Q192" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;P$189,'Datos finales'!$AH:$AH,"&lt;="&amp;Q$189,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="R192" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;Q$189,'Datos finales'!$AH:$AH,"&lt;="&amp;R$189,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B193" s="25">
-        <v>5</v>
-      </c>
-      <c r="C193" s="25">
-        <v>5</v>
-      </c>
-      <c r="D193" s="25">
-        <v>1</v>
-      </c>
-      <c r="J193" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K193" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;J$189,'Datos finales'!$AH:$AH,"&lt;="&amp;K$189,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>1</v>
-      </c>
-      <c r="L193" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;K$189,'Datos finales'!$AH:$AH,"&lt;="&amp;L$189,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="M193" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;L$189,'Datos finales'!$AH:$AH,"&lt;="&amp;M$189,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="N193" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;M$189,'Datos finales'!$AH:$AH,"&lt;="&amp;N$189,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="O193" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;N$189,'Datos finales'!$AH:$AH,"&lt;="&amp;O$189,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="P193" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;O$189,'Datos finales'!$AH:$AH,"&lt;="&amp;P$189,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="Q193" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;P$189,'Datos finales'!$AH:$AH,"&lt;="&amp;Q$189,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="R193" s="20">
-        <f>COUNTIFS('Datos finales'!$AH:$AH,"&gt;"&amp;Q$189,'Datos finales'!$AH:$AH,"&lt;="&amp;R$189,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
+      <c r="W193" t="str">
+        <f t="shared" si="27"/>
+        <v>Positivo</v>
       </c>
     </row>
     <row r="194" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B194" s="25" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C194" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D194" s="25">
+        <v>0</v>
+      </c>
+      <c r="K194" cm="1">
+        <f t="array" ref="K194:R194">TRANSPOSE(B189:B196)</f>
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>3</v>
+      </c>
+      <c r="M194">
         <v>4</v>
       </c>
-      <c r="K194" cm="1">
-        <f t="array" ref="K194:R194">TRANSPOSE(D190:D197)</f>
-        <v>19</v>
-      </c>
-      <c r="L194">
-        <v>6</v>
-      </c>
-      <c r="M194">
-        <v>0</v>
-      </c>
       <c r="N194">
-        <v>1</v>
-      </c>
-      <c r="O194">
-        <v>4</v>
-      </c>
-      <c r="P194">
-        <v>0</v>
-      </c>
-      <c r="Q194">
-        <v>1</v>
-      </c>
-      <c r="R194">
-        <v>1</v>
-      </c>
-      <c r="U194">
-        <f t="shared" ref="R194:W194" si="27">H190</f>
-        <v>0</v>
-      </c>
-      <c r="V194">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="W194" t="str">
-        <f t="shared" si="27"/>
-        <v>Positivo</v>
+        <v>5</v>
+      </c>
+      <c r="O194" t="str">
+        <v>De 6-10</v>
+      </c>
+      <c r="P194" t="str">
+        <v>De 11-15</v>
+      </c>
+      <c r="Q194" t="str">
+        <v>De 15-20</v>
+      </c>
+      <c r="R194" t="str">
+        <v>De 20-30</v>
       </c>
     </row>
     <row r="195" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B195" s="25" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C195" s="25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D195" s="25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J195" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K195" s="79">
+        <f>IF(K$193&lt;&gt;0, K189/K$193, "-")</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="L195" s="79">
+        <f t="shared" ref="L195:R195" si="28">IF(L$193&lt;&gt;0, L189/L$193, "-")</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M195" s="79" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="N195" s="79">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="O195" s="79">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="P195" s="79" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="Q195" s="79">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="R195" s="79">
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B196" s="25" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C196" s="25">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D196" s="25">
         <v>1</v>
       </c>
       <c r="J196" s="30" t="s">
-        <v>890</v>
-      </c>
-      <c r="K196" s="21">
-        <f>IF(K$194&lt;&gt;0, K190/K$194, "-")</f>
-        <v>0.78947368421052633</v>
-      </c>
-      <c r="L196" s="21">
-        <f t="shared" ref="L196:R196" si="28">IF(L$194&lt;&gt;0, L190/L$194, "-")</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M196" s="21" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="N196" s="21">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="O196" s="21">
-        <f t="shared" si="28"/>
-        <v>0.5</v>
-      </c>
-      <c r="P196" s="21" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="Q196" s="21">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="R196" s="21">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B197" s="25" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C197" s="25">
-        <v>30</v>
-      </c>
-      <c r="D197" s="25">
-        <v>1</v>
-      </c>
-      <c r="J197" s="30" t="s">
         <v>891</v>
       </c>
-      <c r="K197" s="21">
-        <f t="shared" ref="K197:R197" si="29">IF(K$194&lt;&gt;0, K191/K$194, "-")</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="L197" s="21">
+      <c r="K196" s="79">
+        <f t="shared" ref="K196:R196" si="29">IF(K$193&lt;&gt;0, K190/K$193, "-")</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="L196" s="79">
         <f t="shared" si="29"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M197" s="21" t="str">
+      <c r="M196" s="79" t="str">
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
-      <c r="N197" s="21">
+      <c r="N196" s="79">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O197" s="21">
+      <c r="O196" s="79">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="P197" s="21" t="str">
+      <c r="P196" s="79" t="str">
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
-      <c r="Q197" s="21">
+      <c r="Q196" s="79">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="R197" s="21">
+      <c r="R196" s="79">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C198" s="25" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D198" s="25">
+    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C197" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D197" s="25">
         <v>0</v>
       </c>
-      <c r="J198" s="30" t="s">
+      <c r="J197" s="30" t="s">
         <v>892</v>
       </c>
-      <c r="K198" s="21">
-        <f t="shared" ref="K198:R198" si="30">IF(K$194&lt;&gt;0, K192/K$194, "-")</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="L198" s="21">
+      <c r="K197" s="79">
+        <f t="shared" ref="K197:R197" si="30">IF(K$193&lt;&gt;0, K191/K$193, "-")</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L197" s="79">
         <f t="shared" si="30"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M198" s="21" t="str">
+      <c r="M197" s="79" t="str">
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
-      <c r="N198" s="21">
+      <c r="N197" s="79">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="O198" s="21">
+      <c r="O197" s="79">
         <f t="shared" si="30"/>
         <v>0.5</v>
       </c>
-      <c r="P198" s="21" t="str">
+      <c r="P197" s="79" t="str">
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
-      <c r="Q198" s="21">
+      <c r="Q197" s="79">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="R198" s="21">
+      <c r="R197" s="79">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C199" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D199">
-        <f>SUM(_xlfn.ANCHORARRAY(D190))</f>
-        <v>32</v>
-      </c>
-      <c r="J199" s="30" t="s">
+    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D198">
+        <f>SUM(_xlfn.ANCHORARRAY(D189))</f>
+        <v>31</v>
+      </c>
+      <c r="J198" s="30" t="s">
         <v>895</v>
       </c>
-      <c r="K199" s="21">
-        <f t="shared" ref="K199:R199" si="31">IF(K$194&lt;&gt;0, K193/K$194, "-")</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="L199" s="21">
+      <c r="K198" s="79">
+        <f t="shared" ref="K198:R198" si="31">IF(K$193&lt;&gt;0, K192/K$193, "-")</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="L198" s="79">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="M199" s="21" t="str">
+      <c r="M198" s="79" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
       </c>
-      <c r="N199" s="21">
+      <c r="N198" s="79">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="O199" s="21">
+      <c r="O198" s="79">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="P199" s="21" t="str">
+      <c r="P198" s="79" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
       </c>
-      <c r="Q199" s="21">
+      <c r="Q198" s="79">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R199" s="21">
+      <c r="R198" s="79">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="B201" s="37" t="s">
-        <v>1092</v>
-      </c>
+    <row r="200" spans="2:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="B200" s="37" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="201" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B201" s="28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D201" s="28" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J201" s="46">
+        <v>0</v>
+      </c>
+      <c r="K201" s="28" cm="1">
+        <f t="array" ref="K201:Q201">TRANSPOSE(C202:C208)</f>
+        <v>5</v>
+      </c>
+      <c r="L201" s="28">
+        <v>10</v>
+      </c>
+      <c r="M201" s="28">
+        <v>20</v>
+      </c>
+      <c r="N201" s="28">
+        <v>40</v>
+      </c>
+      <c r="O201" s="28">
+        <v>80</v>
+      </c>
+      <c r="P201" s="28">
+        <v>160</v>
+      </c>
+      <c r="Q201" s="30">
+        <v>320</v>
+      </c>
+      <c r="R201" s="76"/>
     </row>
     <row r="202" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B202" s="28" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C202" s="28" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D202" s="28" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J202" s="46">
+      <c r="B202" s="25" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C202" s="25">
+        <v>5</v>
+      </c>
+      <c r="D202" s="25" cm="1">
+        <f t="array" ref="D202:D209">FREQUENCY('Datos finales'!AI3:AI107,Cálculos!C202:C208)</f>
+        <v>7</v>
+      </c>
+      <c r="J202" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K202" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;J$201,'Datos finales'!$AI:$AI,"&lt;="&amp;K$201,'Datos finales'!$G:$G,"=1")</f>
+        <v>4</v>
+      </c>
+      <c r="L202" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;K$201,'Datos finales'!$AI:$AI,"&lt;="&amp;L$201,'Datos finales'!$G:$G,"=1")</f>
         <v>0</v>
       </c>
-      <c r="K202" s="28" cm="1">
-        <f t="array" ref="K202:Q202">TRANSPOSE(C203:C209)</f>
+      <c r="M202" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;L$201,'Datos finales'!$AI:$AI,"&lt;="&amp;M$201,'Datos finales'!$G:$G,"=1")</f>
+        <v>3</v>
+      </c>
+      <c r="N202" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;M$201,'Datos finales'!$AI:$AI,"&lt;="&amp;N$201,'Datos finales'!$G:$G,"=1")</f>
+        <v>8</v>
+      </c>
+      <c r="O202" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;N$201,'Datos finales'!$AI:$AI,"&lt;="&amp;O$201,'Datos finales'!$G:$G,"=1")</f>
         <v>5</v>
       </c>
-      <c r="L202" s="28">
+      <c r="P202" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;O$201,'Datos finales'!$AI:$AI,"&lt;="&amp;P$201,'Datos finales'!$G:$G,"=1")</f>
+        <v>3</v>
+      </c>
+      <c r="Q202" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;P$201,'Datos finales'!$AI:$AI,"&lt;="&amp;Q$201,'Datos finales'!$G:$G,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="R202" s="68"/>
+    </row>
+    <row r="203" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B203" s="25" t="str">
+        <f t="shared" ref="B203:B208" si="32">""&amp;C202+1&amp;"-"&amp;C203</f>
+        <v>6-10</v>
+      </c>
+      <c r="C203" s="25">
         <v>10</v>
       </c>
-      <c r="M202" s="28">
-        <v>20</v>
-      </c>
-      <c r="N202" s="28">
-        <v>40</v>
-      </c>
-      <c r="O202" s="28">
-        <v>80</v>
-      </c>
-      <c r="P202" s="28">
-        <v>160</v>
-      </c>
-      <c r="Q202" s="30">
-        <v>320</v>
-      </c>
-      <c r="R202" s="90"/>
-    </row>
-    <row r="203" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B203" s="25" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C203" s="25">
-        <v>5</v>
-      </c>
-      <c r="D203" s="25" cm="1">
-        <f t="array" ref="D203:D210">FREQUENCY('Datos finales'!AI3:AI107,Cálculos!C203:C209)</f>
-        <v>7</v>
+      <c r="D203" s="25">
+        <v>1</v>
       </c>
       <c r="J203" s="30" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K203" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;J$202,'Datos finales'!$AI:$AI,"&lt;="&amp;K$202,'Datos finales'!$G:$G,"=1")</f>
-        <v>4</v>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;J$201,'Datos finales'!$AI:$AI,"&lt;="&amp;K$201,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="L203" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;K$202,'Datos finales'!$AI:$AI,"&lt;="&amp;L$202,'Datos finales'!$G:$G,"=1")</f>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;K$201,'Datos finales'!$AI:$AI,"&lt;="&amp;L$201,'Datos finales'!$G:$G,"=-1")</f>
+        <v>1</v>
+      </c>
+      <c r="M203" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;L$201,'Datos finales'!$AI:$AI,"&lt;="&amp;M$201,'Datos finales'!$G:$G,"=-1")</f>
         <v>0</v>
       </c>
-      <c r="M203" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;L$202,'Datos finales'!$AI:$AI,"&lt;="&amp;M$202,'Datos finales'!$G:$G,"=1")</f>
-        <v>4</v>
-      </c>
       <c r="N203" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;M$202,'Datos finales'!$AI:$AI,"&lt;="&amp;N$202,'Datos finales'!$G:$G,"=1")</f>
-        <v>8</v>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;M$201,'Datos finales'!$AI:$AI,"&lt;="&amp;N$201,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="O203" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;N$202,'Datos finales'!$AI:$AI,"&lt;="&amp;O$202,'Datos finales'!$G:$G,"=1")</f>
-        <v>5</v>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;N$201,'Datos finales'!$AI:$AI,"&lt;="&amp;O$201,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="P203" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;O$202,'Datos finales'!$AI:$AI,"&lt;="&amp;P$202,'Datos finales'!$G:$G,"=1")</f>
-        <v>3</v>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;O$201,'Datos finales'!$AI:$AI,"&lt;="&amp;P$201,'Datos finales'!$G:$G,"=-1")</f>
+        <v>1</v>
       </c>
       <c r="Q203" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;P$202,'Datos finales'!$AI:$AI,"&lt;="&amp;Q$202,'Datos finales'!$G:$G,"=1")</f>
-        <v>1</v>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;P$201,'Datos finales'!$AI:$AI,"&lt;="&amp;Q$201,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="R203" s="68"/>
     </row>
     <row r="204" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B204" s="25" t="str">
-        <f>""&amp;C203+1&amp;"-"&amp;C204</f>
-        <v>6-10</v>
+        <f t="shared" si="32"/>
+        <v>11-20</v>
       </c>
       <c r="C204" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D204" s="25">
+        <v>6</v>
+      </c>
+      <c r="J204" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="K204" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;J$201,'Datos finales'!$AI:$AI,"&lt;="&amp;K$201,'Datos finales'!$G:$G,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="L204" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;K$201,'Datos finales'!$AI:$AI,"&lt;="&amp;L$201,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="M204" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;L$201,'Datos finales'!$AI:$AI,"&lt;="&amp;M$201,'Datos finales'!$G:$G,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="N204" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;M$201,'Datos finales'!$AI:$AI,"&lt;="&amp;N$201,'Datos finales'!$G:$G,"=0")</f>
         <v>1</v>
       </c>
-      <c r="J204" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K204" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;J$202,'Datos finales'!$AI:$AI,"&lt;="&amp;K$202,'Datos finales'!$G:$G,"=-1")</f>
+      <c r="O204" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;N$201,'Datos finales'!$AI:$AI,"&lt;="&amp;O$201,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
-      <c r="L204" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;K$202,'Datos finales'!$AI:$AI,"&lt;="&amp;L$202,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
-      <c r="M204" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;L$202,'Datos finales'!$AI:$AI,"&lt;="&amp;M$202,'Datos finales'!$G:$G,"=-1")</f>
+      <c r="P204" s="20">
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;O$201,'Datos finales'!$AI:$AI,"&lt;="&amp;P$201,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
-      <c r="N204" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;M$202,'Datos finales'!$AI:$AI,"&lt;="&amp;N$202,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="O204" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;N$202,'Datos finales'!$AI:$AI,"&lt;="&amp;O$202,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="P204" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;O$202,'Datos finales'!$AI:$AI,"&lt;="&amp;P$202,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
       <c r="Q204" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;P$202,'Datos finales'!$AI:$AI,"&lt;="&amp;Q$202,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;P$201,'Datos finales'!$AI:$AI,"&lt;="&amp;Q$201,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="R204" s="68"/>
     </row>
     <row r="205" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B205" s="25" t="str">
-        <f>""&amp;C204+1&amp;"-"&amp;C205</f>
-        <v>11-20</v>
+        <f t="shared" si="32"/>
+        <v>21-40</v>
       </c>
       <c r="C205" s="25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D205" s="25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J205" s="30" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="K205" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;J$202,'Datos finales'!$AI:$AI,"&lt;="&amp;K$202,'Datos finales'!$G:$G,"=0")</f>
-        <v>2</v>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;J$201,'Datos finales'!$AI:$AI,"&lt;="&amp;K$201,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>1</v>
       </c>
       <c r="L205" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;K$202,'Datos finales'!$AI:$AI,"&lt;="&amp;L$202,'Datos finales'!$G:$G,"=0")</f>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;K$201,'Datos finales'!$AI:$AI,"&lt;="&amp;L$201,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
       <c r="M205" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;L$202,'Datos finales'!$AI:$AI,"&lt;="&amp;M$202,'Datos finales'!$G:$G,"=0")</f>
-        <v>2</v>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;L$201,'Datos finales'!$AI:$AI,"&lt;="&amp;M$201,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>1</v>
       </c>
       <c r="N205" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;M$202,'Datos finales'!$AI:$AI,"&lt;="&amp;N$202,'Datos finales'!$G:$G,"=0")</f>
-        <v>1</v>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;M$201,'Datos finales'!$AI:$AI,"&lt;="&amp;N$201,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
       </c>
       <c r="O205" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;N$202,'Datos finales'!$AI:$AI,"&lt;="&amp;O$202,'Datos finales'!$G:$G,"=0")</f>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;N$201,'Datos finales'!$AI:$AI,"&lt;="&amp;O$201,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
       <c r="P205" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;O$202,'Datos finales'!$AI:$AI,"&lt;="&amp;P$202,'Datos finales'!$G:$G,"=0")</f>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;O$201,'Datos finales'!$AI:$AI,"&lt;="&amp;P$201,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
       <c r="Q205" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;P$202,'Datos finales'!$AI:$AI,"&lt;="&amp;Q$202,'Datos finales'!$G:$G,"=0")</f>
+        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;P$201,'Datos finales'!$AI:$AI,"&lt;="&amp;Q$201,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
       <c r="R205" s="68"/>
     </row>
     <row r="206" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B206" s="25" t="str">
-        <f>""&amp;C205+1&amp;"-"&amp;C206</f>
-        <v>21-40</v>
+        <f t="shared" si="32"/>
+        <v>41-80</v>
       </c>
       <c r="C206" s="25">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D206" s="25">
+        <v>5</v>
+      </c>
+      <c r="K206" cm="1">
+        <f t="array" ref="K206:Q206">TRANSPOSE(D202:D208)</f>
+        <v>7</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>6</v>
+      </c>
+      <c r="N206">
         <v>9</v>
       </c>
-      <c r="J206" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K206" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;J$202,'Datos finales'!$AI:$AI,"&lt;="&amp;K$202,'Datos finales'!$G:$G,"=N/A")</f>
+      <c r="O206">
+        <v>5</v>
+      </c>
+      <c r="P206">
+        <v>4</v>
+      </c>
+      <c r="Q206">
         <v>1</v>
       </c>
-      <c r="L206" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;K$202,'Datos finales'!$AI:$AI,"&lt;="&amp;L$202,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="M206" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;L$202,'Datos finales'!$AI:$AI,"&lt;="&amp;M$202,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>1</v>
-      </c>
-      <c r="N206" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;M$202,'Datos finales'!$AI:$AI,"&lt;="&amp;N$202,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="O206" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;N$202,'Datos finales'!$AI:$AI,"&lt;="&amp;O$202,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="P206" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;O$202,'Datos finales'!$AI:$AI,"&lt;="&amp;P$202,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="Q206" s="20">
-        <f>COUNTIFS('Datos finales'!$AI:$AI,"&gt;"&amp;P$202,'Datos finales'!$AI:$AI,"&lt;="&amp;Q$202,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="R206" s="68"/>
+      <c r="R206" s="77"/>
     </row>
     <row r="207" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B207" s="25" t="str">
-        <f>""&amp;C206+1&amp;"-"&amp;C207</f>
+        <f t="shared" si="32"/>
+        <v>81-160</v>
+      </c>
+      <c r="C207" s="25">
+        <v>160</v>
+      </c>
+      <c r="D207" s="25">
+        <v>4</v>
+      </c>
+      <c r="K207" t="str" cm="1">
+        <f t="array" ref="K207:Q207">TRANSPOSE(B202:B208)</f>
+        <v>0-5</v>
+      </c>
+      <c r="L207" t="str">
+        <v>6-10</v>
+      </c>
+      <c r="M207" t="str">
+        <v>11-20</v>
+      </c>
+      <c r="N207" t="str">
+        <v>21-40</v>
+      </c>
+      <c r="O207" t="str">
         <v>41-80</v>
       </c>
-      <c r="C207" s="25">
-        <v>80</v>
-      </c>
-      <c r="D207" s="25">
-        <v>5</v>
-      </c>
-      <c r="K207" cm="1">
-        <f t="array" ref="K207:Q207">TRANSPOSE(D203:D209)</f>
-        <v>7</v>
-      </c>
-      <c r="L207">
-        <v>1</v>
-      </c>
-      <c r="M207">
-        <v>7</v>
-      </c>
-      <c r="N207">
-        <v>9</v>
-      </c>
-      <c r="O207">
-        <v>5</v>
-      </c>
-      <c r="P207">
-        <v>4</v>
-      </c>
-      <c r="Q207">
-        <v>1</v>
-      </c>
-      <c r="R207" s="91"/>
+      <c r="P207" t="str">
+        <v>81-160</v>
+      </c>
+      <c r="Q207" t="str">
+        <v>161-320</v>
+      </c>
+      <c r="R207" s="77"/>
     </row>
     <row r="208" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B208" s="25" t="str">
-        <f>""&amp;C207+1&amp;"-"&amp;C208</f>
-        <v>81-160</v>
+        <f t="shared" si="32"/>
+        <v>161-320</v>
       </c>
       <c r="C208" s="25">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D208" s="25">
-        <v>4</v>
-      </c>
-      <c r="R208" s="91"/>
-    </row>
-    <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="25" t="str">
-        <f>""&amp;C208+1&amp;"-"&amp;C209</f>
-        <v>161-320</v>
-      </c>
-      <c r="C209" s="25">
-        <v>320</v>
-      </c>
-      <c r="D209" s="25">
         <v>1</v>
       </c>
-      <c r="J209" s="30" t="s">
+      <c r="J208" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="K209" s="21">
-        <f>IF(K$207&lt;&gt;0, K203/K$207, 0)</f>
+      <c r="K208" s="79">
+        <f>IF(K$206&lt;&gt;0, K202/K$206, 0)</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="L209" s="21">
-        <f t="shared" ref="L209:Q209" si="32">IF(L$207&lt;&gt;0, L203/L$207, 0)</f>
+      <c r="L208" s="79">
+        <f t="shared" ref="L208:Q208" si="33">IF(L$206&lt;&gt;0, L202/L$206, 0)</f>
         <v>0</v>
       </c>
-      <c r="M209" s="21">
-        <f t="shared" si="32"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="N209" s="21">
-        <f t="shared" si="32"/>
+      <c r="M208" s="79">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="N208" s="79">
+        <f t="shared" si="33"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="O209" s="21">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="P209" s="21">
-        <f t="shared" si="32"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q209" s="21">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="R209" s="92"/>
-    </row>
-    <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C210" s="25" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D210" s="25">
-        <v>0</v>
-      </c>
-      <c r="J210" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K210" s="21">
-        <f t="shared" ref="K210:Q210" si="33">IF(K$207&lt;&gt;0, K204/K$207, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L210" s="21">
+      <c r="O208" s="79">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="M210" s="21">
+      <c r="P208" s="79">
         <f t="shared" si="33"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q208" s="79">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="R208" s="78"/>
+    </row>
+    <row r="209" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C209" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D209" s="25">
         <v>0</v>
       </c>
-      <c r="N210" s="21">
-        <f t="shared" si="33"/>
+      <c r="J209" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="K209" s="79">
+        <f t="shared" ref="K209:Q209" si="34">IF(K$206&lt;&gt;0, K203/K$206, 0)</f>
         <v>0</v>
       </c>
-      <c r="O210" s="21">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="P210" s="21">
-        <f t="shared" si="33"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q210" s="21">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="R210" s="92"/>
-    </row>
-    <row r="211" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C211" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D211">
-        <f>SUM(D203:D209)</f>
-        <v>34</v>
-      </c>
-      <c r="J211" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K211" s="21">
-        <f t="shared" ref="K211:Q211" si="34">IF(K$207&lt;&gt;0, K205/K$207, 0)</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L211" s="21">
+      <c r="L209" s="79">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="M209" s="79">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M211" s="21">
-        <f t="shared" si="34"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N211" s="21">
-        <f t="shared" si="34"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O211" s="21">
+      <c r="N209" s="79">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="P211" s="21">
+      <c r="O209" s="79">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Q211" s="21">
+      <c r="P209" s="79">
+        <f t="shared" si="34"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q209" s="79">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="R211" s="92"/>
-    </row>
-    <row r="212" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J212" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K212" s="21">
-        <f t="shared" ref="K212:Q212" si="35">IF(K$207&lt;&gt;0, K206/K$207, 0)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="L212" s="21">
+      <c r="R209" s="78"/>
+    </row>
+    <row r="210" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D210">
+        <f>SUM(D202:D208)</f>
+        <v>33</v>
+      </c>
+      <c r="J210" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="K210" s="79">
+        <f t="shared" ref="K210:Q210" si="35">IF(K$206&lt;&gt;0, K204/K$206, 0)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L210" s="79">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="M212" s="21">
+      <c r="M210" s="79">
         <f t="shared" si="35"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="N212" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N210" s="79">
+        <f t="shared" si="35"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O210" s="79">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O212" s="21">
+      <c r="P210" s="79">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="P212" s="21">
+      <c r="Q210" s="79">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q212" s="21">
-        <f t="shared" si="35"/>
+      <c r="R210" s="78"/>
+    </row>
+    <row r="211" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J211" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K211" s="79">
+        <f t="shared" ref="K211:Q211" si="36">IF(K$206&lt;&gt;0, K205/K$206, 0)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L211" s="79">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="R212" s="92"/>
-    </row>
-    <row r="214" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="B214" s="37" t="s">
-        <v>1093</v>
+      <c r="M211" s="79">
+        <f t="shared" si="36"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N211" s="79">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O211" s="79">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P211" s="79">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q211" s="79">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R211" s="78"/>
+    </row>
+    <row r="213" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="B213" s="37" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="214" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B214" s="28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C214" s="28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D214" s="28" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="215" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B215" s="28" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C215" s="28" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D215" s="28" t="s">
-        <v>1084</v>
+      <c r="B215" s="25" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C215" s="25">
+        <v>5</v>
+      </c>
+      <c r="D215" s="25" cm="1">
+        <f t="array" ref="D215:D222">FREQUENCY('Datos finales'!AJ3:AJ107,Cálculos!C215:C221)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="25" t="s">
-        <v>1129</v>
+      <c r="B216" s="25" t="str">
+        <f t="shared" ref="B216:B221" si="37">""&amp;C215+1&amp;"-"&amp;C216</f>
+        <v>6-10</v>
       </c>
       <c r="C216" s="25">
-        <v>5</v>
-      </c>
-      <c r="D216" s="25" cm="1">
-        <f t="array" ref="D216:D223">FREQUENCY('Datos finales'!AJ3:AJ107,Cálculos!C216:C222)</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D216" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B217" s="25" t="str">
-        <f>""&amp;C216+1&amp;"-"&amp;C217</f>
-        <v>6-10</v>
+        <f t="shared" si="37"/>
+        <v>11-20</v>
       </c>
       <c r="C217" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D217" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B218" s="25" t="str">
-        <f>""&amp;C217+1&amp;"-"&amp;C218</f>
-        <v>11-20</v>
+        <f t="shared" si="37"/>
+        <v>21-40</v>
       </c>
       <c r="C218" s="25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D218" s="25">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B219" s="25" t="str">
-        <f>""&amp;C218+1&amp;"-"&amp;C219</f>
-        <v>21-40</v>
+        <f t="shared" si="37"/>
+        <v>41-80</v>
       </c>
       <c r="C219" s="25">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D219" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B220" s="25" t="str">
-        <f>""&amp;C219+1&amp;"-"&amp;C220</f>
-        <v>41-80</v>
+        <f t="shared" si="37"/>
+        <v>81-160</v>
       </c>
       <c r="C220" s="25">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D220" s="25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B221" s="25" t="str">
-        <f>""&amp;C220+1&amp;"-"&amp;C221</f>
-        <v>81-160</v>
+        <f t="shared" si="37"/>
+        <v>161-320</v>
       </c>
       <c r="C221" s="25">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D221" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C222" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D222" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B222" s="25" t="str">
-        <f>""&amp;C221+1&amp;"-"&amp;C222</f>
-        <v>161-320</v>
-      </c>
-      <c r="C222" s="25">
-        <v>320</v>
-      </c>
-      <c r="D222" s="25">
-        <v>2</v>
-      </c>
-    </row>
     <row r="223" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C223" s="25" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D223" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C224" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D224">
-        <f>SUM(D216:D222)</f>
+      <c r="C223" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D223">
+        <f>SUM(D215:D221)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B226" s="37" t="s">
-        <v>1094</v>
+    <row r="225" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B225" s="37" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C226" s="25">
+        <f>SUM(C227:C231)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="25" t="s">
-        <v>1078</v>
+        <v>1038</v>
       </c>
       <c r="C227" s="25">
-        <f>SUM(C228:C251)</f>
-        <v>100626</v>
+        <f>COUNTIF('Datos finales'!AK$3:AK$107,B227)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="25" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="C228" s="25">
         <f>COUNTIF('Datos finales'!AK$3:AK$107,B228)</f>
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="25" t="s">
-        <v>1045</v>
+        <v>1131</v>
       </c>
       <c r="C229" s="25">
         <f>COUNTIF('Datos finales'!AK$3:AK$107,B229)</f>
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="25" t="s">
-        <v>1054</v>
+        <v>1093</v>
       </c>
       <c r="C230" s="25">
         <f>COUNTIF('Datos finales'!AK$3:AK$107,B230)</f>
@@ -61906,21 +61974,17 @@
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="25" t="s">
-        <v>1095</v>
+        <v>1049</v>
       </c>
       <c r="C231" s="25">
         <f>COUNTIF('Datos finales'!AK$3:AK$107,B231)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B232" s="25" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C232" s="25">
-        <f>COUNTIF('Datos finales'!AK$3:AK$107,B232)</f>
         <v>2</v>
       </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="72"/>
+      <c r="C233" s="72"/>
+      <c r="D233" s="72"/>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="72"/>
@@ -61936,12 +62000,12 @@
       <c r="B236" s="72"/>
       <c r="C236" s="72"/>
       <c r="D236" s="72"/>
+      <c r="G236" s="12"/>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="72"/>
       <c r="C237" s="72"/>
       <c r="D237" s="72"/>
-      <c r="G237" s="12"/>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="72"/>
@@ -61958,1822 +62022,1914 @@
       <c r="C240" s="72"/>
       <c r="D240" s="72"/>
     </row>
-    <row r="241" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B241" s="72"/>
+    <row r="241" spans="2:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="B241" s="37" t="s">
+        <v>1096</v>
+      </c>
       <c r="C241" s="72"/>
       <c r="D241" s="72"/>
     </row>
-    <row r="242" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B242" s="37" t="s">
-        <v>1098</v>
-      </c>
+    <row r="242" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B242" s="72"/>
       <c r="C242" s="72"/>
       <c r="D242" s="72"/>
     </row>
-    <row r="243" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B243" s="72"/>
-      <c r="C243" s="72"/>
-      <c r="D243" s="72"/>
-    </row>
-    <row r="244" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B244" s="28" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C244" s="28" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D244" s="28" t="s">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B243" s="28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C243" s="28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D243" s="28" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J243" s="46">
+        <v>0</v>
+      </c>
+      <c r="K243" s="28" cm="1">
+        <f t="array" ref="K243:Q243">TRANSPOSE(C244:C250)</f>
+        <v>7</v>
+      </c>
+      <c r="L243" s="28">
+        <v>14</v>
+      </c>
+      <c r="M243" s="28">
+        <v>30</v>
+      </c>
+      <c r="N243" s="28">
+        <v>60</v>
+      </c>
+      <c r="O243" s="28">
+        <v>120</v>
+      </c>
+      <c r="P243" s="28">
+        <v>365</v>
+      </c>
+      <c r="Q243" s="30">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="244" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B244" s="25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C244" s="25">
+        <v>7</v>
+      </c>
+      <c r="D244" s="25" cm="1">
+        <f t="array" ref="D244:D250">FREQUENCY('Datos finales'!AL$3:AL$107,Cálculos!C244:C249)</f>
+        <v>29</v>
+      </c>
+      <c r="J244" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K244" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;J$243,'Datos finales'!$AL:$AL,"&lt;="&amp;K$243,'Datos finales'!$G:$G,"=1")</f>
+        <v>25</v>
+      </c>
+      <c r="L244" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;K$243,'Datos finales'!$AL:$AL,"&lt;="&amp;L$243,'Datos finales'!$G:$G,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="M244" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;L$243,'Datos finales'!$AL:$AL,"&lt;="&amp;M$243,'Datos finales'!$G:$G,"=1")</f>
+        <v>6</v>
+      </c>
+      <c r="N244" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;M$243,'Datos finales'!$AL:$AL,"&lt;="&amp;N$243,'Datos finales'!$G:$G,"=1")</f>
+        <v>4</v>
+      </c>
+      <c r="O244" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;N$243,'Datos finales'!$AL:$AL,"&lt;="&amp;O$243,'Datos finales'!$G:$G,"=1")</f>
+        <v>8</v>
+      </c>
+      <c r="P244" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;O$243,'Datos finales'!$AL:$AL,"&lt;="&amp;P$243,'Datos finales'!$G:$G,"=1")</f>
+        <v>8</v>
+      </c>
+      <c r="Q244" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;P$243,'Datos finales'!$AL:$AL,"&lt;="&amp;Q$243,'Datos finales'!$G:$G,"=1")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B245" s="75" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C245" s="25">
+        <v>14</v>
+      </c>
+      <c r="D245" s="25">
+        <v>1</v>
+      </c>
+      <c r="J245" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="K245" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;J$243,'Datos finales'!$AL:$AL,"&lt;="&amp;K$243,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="L245" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;K$243,'Datos finales'!$AL:$AL,"&lt;="&amp;L$243,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="M245" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;L$243,'Datos finales'!$AL:$AL,"&lt;="&amp;M$243,'Datos finales'!$G:$G,"=-1")</f>
+        <v>1</v>
+      </c>
+      <c r="N245" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;M$243,'Datos finales'!$AL:$AL,"&lt;="&amp;N$243,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="O245" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;N$243,'Datos finales'!$AL:$AL,"&lt;="&amp;O$243,'Datos finales'!$G:$G,"=-1")</f>
+        <v>1</v>
+      </c>
+      <c r="P245" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;O$243,'Datos finales'!$AL:$AL,"&lt;="&amp;P$243,'Datos finales'!$G:$G,"=-1")</f>
+        <v>3</v>
+      </c>
+      <c r="Q245" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;P$243,'Datos finales'!$AL:$AL,"&lt;="&amp;Q$243,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B246" s="74" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C246" s="25">
+        <v>30</v>
+      </c>
+      <c r="D246" s="25">
+        <v>9</v>
+      </c>
+      <c r="J246" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="K246" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;J$243,'Datos finales'!$AL:$AL,"&lt;="&amp;K$243,'Datos finales'!$G:$G,"=0")</f>
+        <v>3</v>
+      </c>
+      <c r="L246" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;K$243,'Datos finales'!$AL:$AL,"&lt;="&amp;L$243,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="M246" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;L$243,'Datos finales'!$AL:$AL,"&lt;="&amp;M$243,'Datos finales'!$G:$G,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="N246" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;M$243,'Datos finales'!$AL:$AL,"&lt;="&amp;N$243,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="O246" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;N$243,'Datos finales'!$AL:$AL,"&lt;="&amp;O$243,'Datos finales'!$G:$G,"=0")</f>
+        <v>1</v>
+      </c>
+      <c r="P246" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;O$243,'Datos finales'!$AL:$AL,"&lt;="&amp;P$243,'Datos finales'!$G:$G,"=0")</f>
+        <v>1</v>
+      </c>
+      <c r="Q246" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;P$243,'Datos finales'!$AL:$AL,"&lt;="&amp;Q$243,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B247" s="74" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C247" s="25">
+        <v>60</v>
+      </c>
+      <c r="D247" s="25">
+        <v>4</v>
+      </c>
+      <c r="J247" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K247" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;J$243,'Datos finales'!$AL:$AL,"&lt;="&amp;K$243,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="L247" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;K$243,'Datos finales'!$AL:$AL,"&lt;="&amp;L$243,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="M247" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;L$243,'Datos finales'!$AL:$AL,"&lt;="&amp;M$243,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="N247" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;M$243,'Datos finales'!$AL:$AL,"&lt;="&amp;N$243,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="O247" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;N$243,'Datos finales'!$AL:$AL,"&lt;="&amp;O$243,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="P247" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;O$243,'Datos finales'!$AL:$AL,"&lt;="&amp;P$243,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="Q247" s="20">
+        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;P$243,'Datos finales'!$AL:$AL,"&lt;="&amp;Q$243,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B248" s="74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C248" s="25">
+        <v>120</v>
+      </c>
+      <c r="D248" s="25">
+        <v>10</v>
+      </c>
+      <c r="K248" cm="1">
+        <f t="array" ref="K248:Q248">TRANSPOSE(D244:D250)</f>
+        <v>29</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>9</v>
+      </c>
+      <c r="N248">
+        <v>4</v>
+      </c>
+      <c r="O248">
+        <v>10</v>
+      </c>
+      <c r="P248">
+        <v>13</v>
+      </c>
+      <c r="Q248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B249" s="74" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C249" s="25">
+        <v>365</v>
+      </c>
+      <c r="D249" s="25">
+        <v>13</v>
+      </c>
+      <c r="K249" t="str" cm="1">
+        <f t="array" ref="K249:Q249">TRANSPOSE(B244:B250)</f>
+        <v>0-7</v>
+      </c>
+      <c r="L249" t="str">
+        <v>8-14</v>
+      </c>
+      <c r="M249" t="str">
+        <v>15-30</v>
+      </c>
+      <c r="N249" t="str">
+        <v>31-60</v>
+      </c>
+      <c r="O249" t="str">
+        <v>61-120</v>
+      </c>
+      <c r="P249" t="str">
+        <v>121-365</v>
+      </c>
+      <c r="Q249" t="str">
+        <v>&gt;365</v>
+      </c>
+    </row>
+    <row r="250" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B250" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C250" s="25">
+        <v>100000</v>
+      </c>
+      <c r="D250" s="25">
+        <v>3</v>
+      </c>
+      <c r="J250" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K250" s="79">
+        <f>IF(K$248&lt;&gt;0, K244/K$248, 0)</f>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="L250" s="79">
+        <f t="shared" ref="L250:Q250" si="38">IF(L$248&lt;&gt;0, L244/L$248, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M250" s="79">
+        <f t="shared" si="38"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N250" s="79">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="O250" s="79">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
+      <c r="P250" s="79">
+        <f t="shared" si="38"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="Q250" s="79">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B251" s="72"/>
+      <c r="C251" s="25" t="s">
         <v>1084</v>
       </c>
-      <c r="J244" s="46">
+      <c r="D251" s="25"/>
+      <c r="F251" s="12"/>
+      <c r="J251" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="K251" s="79">
+        <f t="shared" ref="K251:Q251" si="39">IF(K$248&lt;&gt;0, K245/K$248, 0)</f>
         <v>0</v>
       </c>
-      <c r="K244" s="28" cm="1">
-        <f t="array" ref="K244:Q244">TRANSPOSE(C245:C251)</f>
-        <v>7</v>
-      </c>
-      <c r="L244" s="28">
-        <v>14</v>
-      </c>
-      <c r="M244" s="28">
-        <v>30</v>
-      </c>
-      <c r="N244" s="28">
-        <v>60</v>
-      </c>
-      <c r="O244" s="28">
-        <v>120</v>
-      </c>
-      <c r="P244" s="28">
-        <v>365</v>
-      </c>
-      <c r="Q244" s="30">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="245" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B245" s="25" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C245" s="25">
-        <v>7</v>
-      </c>
-      <c r="D245" s="25" cm="1">
-        <f t="array" ref="D245:D251">FREQUENCY('Datos finales'!AL$3:AL$107,Cálculos!C245:C250)</f>
-        <v>29</v>
-      </c>
-      <c r="J245" s="30" t="s">
-        <v>890</v>
-      </c>
-      <c r="K245" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;J$244,'Datos finales'!$AL:$AL,"&lt;="&amp;K$244,'Datos finales'!$G:$G,"=1")</f>
-        <v>25</v>
-      </c>
-      <c r="L245" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;K$244,'Datos finales'!$AL:$AL,"&lt;="&amp;L$244,'Datos finales'!$G:$G,"=1")</f>
-        <v>1</v>
-      </c>
-      <c r="M245" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;L$244,'Datos finales'!$AL:$AL,"&lt;="&amp;M$244,'Datos finales'!$G:$G,"=1")</f>
-        <v>6</v>
-      </c>
-      <c r="N245" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;M$244,'Datos finales'!$AL:$AL,"&lt;="&amp;N$244,'Datos finales'!$G:$G,"=1")</f>
-        <v>4</v>
-      </c>
-      <c r="O245" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;N$244,'Datos finales'!$AL:$AL,"&lt;="&amp;O$244,'Datos finales'!$G:$G,"=1")</f>
-        <v>8</v>
-      </c>
-      <c r="P245" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;O$244,'Datos finales'!$AL:$AL,"&lt;="&amp;P$244,'Datos finales'!$G:$G,"=1")</f>
-        <v>8</v>
-      </c>
-      <c r="Q245" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;P$244,'Datos finales'!$AL:$AL,"&lt;="&amp;Q$244,'Datos finales'!$G:$G,"=1")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B246" s="89" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C246" s="25">
-        <v>14</v>
-      </c>
-      <c r="D246" s="25">
-        <v>1</v>
-      </c>
-      <c r="J246" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K246" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;J$244,'Datos finales'!$AL:$AL,"&lt;="&amp;K$244,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="L246" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;K$244,'Datos finales'!$AL:$AL,"&lt;="&amp;L$244,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="M246" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;L$244,'Datos finales'!$AL:$AL,"&lt;="&amp;M$244,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
-      <c r="N246" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;M$244,'Datos finales'!$AL:$AL,"&lt;="&amp;N$244,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="O246" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;N$244,'Datos finales'!$AL:$AL,"&lt;="&amp;O$244,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
-      <c r="P246" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;O$244,'Datos finales'!$AL:$AL,"&lt;="&amp;P$244,'Datos finales'!$G:$G,"=-1")</f>
-        <v>3</v>
-      </c>
-      <c r="Q246" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;P$244,'Datos finales'!$AL:$AL,"&lt;="&amp;Q$244,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B247" s="88" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C247" s="25">
-        <v>30</v>
-      </c>
-      <c r="D247" s="25">
-        <v>9</v>
-      </c>
-      <c r="J247" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K247" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;J$244,'Datos finales'!$AL:$AL,"&lt;="&amp;K$244,'Datos finales'!$G:$G,"=0")</f>
-        <v>3</v>
-      </c>
-      <c r="L247" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;K$244,'Datos finales'!$AL:$AL,"&lt;="&amp;L$244,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="M247" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;L$244,'Datos finales'!$AL:$AL,"&lt;="&amp;M$244,'Datos finales'!$G:$G,"=0")</f>
-        <v>2</v>
-      </c>
-      <c r="N247" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;M$244,'Datos finales'!$AL:$AL,"&lt;="&amp;N$244,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="O247" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;N$244,'Datos finales'!$AL:$AL,"&lt;="&amp;O$244,'Datos finales'!$G:$G,"=0")</f>
-        <v>1</v>
-      </c>
-      <c r="P247" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;O$244,'Datos finales'!$AL:$AL,"&lt;="&amp;P$244,'Datos finales'!$G:$G,"=0")</f>
-        <v>1</v>
-      </c>
-      <c r="Q247" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;P$244,'Datos finales'!$AL:$AL,"&lt;="&amp;Q$244,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B248" s="88" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C248" s="25">
-        <v>60</v>
-      </c>
-      <c r="D248" s="25">
-        <v>4</v>
-      </c>
-      <c r="J248" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K248" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;J$244,'Datos finales'!$AL:$AL,"&lt;="&amp;K$244,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>1</v>
-      </c>
-      <c r="L248" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;K$244,'Datos finales'!$AL:$AL,"&lt;="&amp;L$244,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="M248" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;L$244,'Datos finales'!$AL:$AL,"&lt;="&amp;M$244,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="N248" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;M$244,'Datos finales'!$AL:$AL,"&lt;="&amp;N$244,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="O248" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;N$244,'Datos finales'!$AL:$AL,"&lt;="&amp;O$244,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="P248" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;O$244,'Datos finales'!$AL:$AL,"&lt;="&amp;P$244,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>1</v>
-      </c>
-      <c r="Q248" s="20">
-        <f>COUNTIFS('Datos finales'!$AL:$AL,"&gt;"&amp;P$244,'Datos finales'!$AL:$AL,"&lt;="&amp;Q$244,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B249" s="88" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C249" s="25">
-        <v>120</v>
-      </c>
-      <c r="D249" s="25">
-        <v>10</v>
-      </c>
-      <c r="K249" cm="1">
-        <f t="array" ref="K249:Q249">TRANSPOSE(D245:D251)</f>
-        <v>29</v>
-      </c>
-      <c r="L249">
-        <v>1</v>
-      </c>
-      <c r="M249">
-        <v>9</v>
-      </c>
-      <c r="N249">
-        <v>4</v>
-      </c>
-      <c r="O249">
-        <v>10</v>
-      </c>
-      <c r="P249">
-        <v>13</v>
-      </c>
-      <c r="Q249">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B250" s="88" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C250" s="25">
-        <v>365</v>
-      </c>
-      <c r="D250" s="25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B251" s="25" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C251" s="25">
-        <v>100000</v>
-      </c>
-      <c r="D251" s="25">
-        <v>3</v>
-      </c>
-      <c r="J251" s="30" t="s">
-        <v>890</v>
-      </c>
-      <c r="K251" s="21">
-        <f>IF(K$249&lt;&gt;0, K245/K$249, 0)</f>
-        <v>0.86206896551724133</v>
-      </c>
-      <c r="L251" s="21">
-        <f t="shared" ref="L251:Q251" si="36">IF(L$249&lt;&gt;0, L245/L$249, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M251" s="21">
-        <f t="shared" si="36"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N251" s="21">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="O251" s="21">
-        <f t="shared" si="36"/>
-        <v>0.8</v>
-      </c>
-      <c r="P251" s="21">
-        <f t="shared" si="36"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="Q251" s="21">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B252" s="72"/>
-      <c r="C252" s="25" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D252" s="25"/>
-      <c r="F252" s="12"/>
-      <c r="J252" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K252" s="21">
-        <f t="shared" ref="K252:Q252" si="37">IF(K$249&lt;&gt;0, K246/K$249, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L252" s="21">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="M252" s="21">
-        <f t="shared" si="37"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N252" s="21">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="O252" s="21">
-        <f t="shared" si="37"/>
-        <v>0.1</v>
-      </c>
-      <c r="P252" s="21">
-        <f t="shared" si="37"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="Q252" s="21">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C253" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D253">
-        <f>SUM(D245:D251)</f>
-        <v>69</v>
-      </c>
-      <c r="J253" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K253" s="21">
-        <f t="shared" ref="K253:Q253" si="38">IF(K$249&lt;&gt;0, K247/K$249, 0)</f>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="L253" s="21">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M253" s="21">
-        <f t="shared" si="38"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N253" s="21">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O253" s="21">
-        <f t="shared" si="38"/>
-        <v>0.1</v>
-      </c>
-      <c r="P253" s="21">
-        <f t="shared" si="38"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="Q253" s="21">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J254" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K254" s="21">
-        <f t="shared" ref="K254:Q254" si="39">IF(K$249&lt;&gt;0, K248/K$249, 0)</f>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="L254" s="21">
+      <c r="L251" s="79">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="M254" s="21">
+      <c r="M251" s="79">
+        <f t="shared" si="39"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N251" s="79">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="N254" s="21">
+      <c r="O251" s="79">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="P251" s="79">
+        <f t="shared" si="39"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="Q251" s="79">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="O254" s="21">
-        <f t="shared" si="39"/>
+    </row>
+    <row r="252" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D252">
+        <f>SUM(D244:D250)</f>
+        <v>69</v>
+      </c>
+      <c r="J252" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="K252" s="79">
+        <f t="shared" ref="K252:Q252" si="40">IF(K$248&lt;&gt;0, K246/K$248, 0)</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="L252" s="79">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="P254" s="21">
-        <f t="shared" si="39"/>
+      <c r="M252" s="79">
+        <f t="shared" si="40"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="N252" s="79">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O252" s="79">
+        <f t="shared" si="40"/>
+        <v>0.1</v>
+      </c>
+      <c r="P252" s="79">
+        <f t="shared" si="40"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="Q254" s="21">
-        <f t="shared" si="39"/>
+      <c r="Q252" s="79">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B255" s="37" t="s">
-        <v>1099</v>
-      </c>
+    <row r="253" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J253" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K253" s="79">
+        <f t="shared" ref="K253:Q253" si="41">IF(K$248&lt;&gt;0, K247/K$248, 0)</f>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="L253" s="79">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M253" s="79">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N253" s="79">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O253" s="79">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P253" s="79">
+        <f t="shared" si="41"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Q253" s="79">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="B254" s="37" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C254" s="72"/>
+      <c r="D254" s="72"/>
+    </row>
+    <row r="255" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B255" s="72"/>
       <c r="C255" s="72"/>
       <c r="D255" s="72"/>
     </row>
-    <row r="256" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B256" s="72"/>
-      <c r="C256" s="72"/>
-      <c r="D256" s="72"/>
+    <row r="256" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B256" s="28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C256" s="28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D256" s="28" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J256" s="46">
+        <v>0</v>
+      </c>
+      <c r="K256" s="28" cm="1">
+        <f t="array" ref="K256:T256">TRANSPOSE(C257:C266)</f>
+        <v>0.999</v>
+      </c>
+      <c r="L256" s="28">
+        <v>1</v>
+      </c>
+      <c r="M256" s="28">
+        <v>2</v>
+      </c>
+      <c r="N256" s="28">
+        <v>3</v>
+      </c>
+      <c r="O256" s="28">
+        <v>4</v>
+      </c>
+      <c r="P256" s="28">
+        <v>5</v>
+      </c>
+      <c r="Q256" s="28">
+        <v>6</v>
+      </c>
+      <c r="R256" s="25">
+        <v>7</v>
+      </c>
+      <c r="S256" s="25">
+        <v>10</v>
+      </c>
+      <c r="T256" s="25">
+        <v>10000</v>
+      </c>
     </row>
     <row r="257" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B257" s="28" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C257" s="28" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D257" s="28" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J257" s="46">
+      <c r="B257" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C257" s="25">
+        <v>0.999</v>
+      </c>
+      <c r="D257" s="25" cm="1">
+        <f t="array" ref="D257:D266">FREQUENCY('Datos finales'!AM$3:AM$107,Cálculos!C257:C265)</f>
+        <v>6</v>
+      </c>
+      <c r="J257" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K257" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;J$256,'Datos finales'!$AM:$AM,"&lt;="&amp;K$256,'Datos finales'!$G:$G,"=1")</f>
+        <v>5</v>
+      </c>
+      <c r="L257" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;K$256,'Datos finales'!$AM:$AM,"&lt;="&amp;L$256,'Datos finales'!$G:$G,"=1")</f>
+        <v>5</v>
+      </c>
+      <c r="M257" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;L$256,'Datos finales'!$AM:$AM,"&lt;="&amp;M$256,'Datos finales'!$G:$G,"=1")</f>
+        <v>7</v>
+      </c>
+      <c r="N257" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;M$256,'Datos finales'!$AM:$AM,"&lt;="&amp;N$256,'Datos finales'!$G:$G,"=1")</f>
+        <v>3</v>
+      </c>
+      <c r="O257" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;N$256,'Datos finales'!$AM:$AM,"&lt;="&amp;O$256,'Datos finales'!$G:$G,"=1")</f>
         <v>0</v>
       </c>
-      <c r="K257" s="28" cm="1">
-        <f t="array" ref="K257:T257">TRANSPOSE(C258:C267)</f>
-        <v>0.999</v>
-      </c>
-      <c r="L257" s="28">
+      <c r="P257" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;O$256,'Datos finales'!$AM:$AM,"&lt;="&amp;P$256,'Datos finales'!$G:$G,"=1")</f>
+        <v>0</v>
+      </c>
+      <c r="Q257" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;P$256,'Datos finales'!$AM:$AM,"&lt;="&amp;Q$256,'Datos finales'!$G:$G,"=1")</f>
+        <v>0</v>
+      </c>
+      <c r="R257" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;Q$256,'Datos finales'!$AM:$AM,"&lt;="&amp;R$256,'Datos finales'!$G:$G,"=1")</f>
         <v>1</v>
       </c>
-      <c r="M257" s="28">
-        <v>2</v>
-      </c>
-      <c r="N257" s="28">
-        <v>3</v>
-      </c>
-      <c r="O257" s="28">
-        <v>4</v>
-      </c>
-      <c r="P257" s="28">
+      <c r="S257" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;R$256,'Datos finales'!$AM:$AM,"&lt;="&amp;S$256,'Datos finales'!$G:$G,"=1")</f>
+        <v>0</v>
+      </c>
+      <c r="T257" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;S$256,'Datos finales'!$AM:$AM,"&lt;="&amp;T$256,'Datos finales'!$G:$G,"=1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B258" s="25">
+        <v>1</v>
+      </c>
+      <c r="C258" s="25">
+        <v>1</v>
+      </c>
+      <c r="D258" s="25">
         <v>5</v>
       </c>
-      <c r="Q257" s="28">
-        <v>6</v>
-      </c>
-      <c r="R257" s="25">
-        <v>7</v>
-      </c>
-      <c r="S257" s="25">
-        <v>10</v>
-      </c>
-      <c r="T257" s="25">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="258" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B258" s="25" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C258" s="25">
-        <v>0.999</v>
-      </c>
-      <c r="D258" s="25" cm="1">
-        <f t="array" ref="D258:D267">FREQUENCY('Datos finales'!AM$3:AM$107,Cálculos!C258:C266)</f>
-        <v>6</v>
-      </c>
       <c r="J258" s="30" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K258" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;J$257,'Datos finales'!$AM:$AM,"&lt;="&amp;K$257,'Datos finales'!$G:$G,"=1")</f>
-        <v>5</v>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;J$256,'Datos finales'!$AM:$AM,"&lt;="&amp;K$256,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="L258" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;K$257,'Datos finales'!$AM:$AM,"&lt;="&amp;L$257,'Datos finales'!$G:$G,"=1")</f>
-        <v>5</v>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;K$256,'Datos finales'!$AM:$AM,"&lt;="&amp;L$256,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="M258" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;L$257,'Datos finales'!$AM:$AM,"&lt;="&amp;M$257,'Datos finales'!$G:$G,"=1")</f>
-        <v>7</v>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;L$256,'Datos finales'!$AM:$AM,"&lt;="&amp;M$256,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="N258" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;M$257,'Datos finales'!$AM:$AM,"&lt;="&amp;N$257,'Datos finales'!$G:$G,"=1")</f>
-        <v>3</v>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;M$256,'Datos finales'!$AM:$AM,"&lt;="&amp;N$256,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
       <c r="O258" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;N$257,'Datos finales'!$AM:$AM,"&lt;="&amp;O$257,'Datos finales'!$G:$G,"=1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;N$256,'Datos finales'!$AM:$AM,"&lt;="&amp;O$256,'Datos finales'!$G:$G,"=-1")</f>
         <v>0</v>
       </c>
       <c r="P258" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;O$257,'Datos finales'!$AM:$AM,"&lt;="&amp;P$257,'Datos finales'!$G:$G,"=1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;O$256,'Datos finales'!$AM:$AM,"&lt;="&amp;P$256,'Datos finales'!$G:$G,"=-1")</f>
         <v>0</v>
       </c>
       <c r="Q258" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;P$257,'Datos finales'!$AM:$AM,"&lt;="&amp;Q$257,'Datos finales'!$G:$G,"=1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;P$256,'Datos finales'!$AM:$AM,"&lt;="&amp;Q$256,'Datos finales'!$G:$G,"=-1")</f>
         <v>0</v>
       </c>
       <c r="R258" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;Q$257,'Datos finales'!$AM:$AM,"&lt;="&amp;R$257,'Datos finales'!$G:$G,"=1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;Q$256,'Datos finales'!$AM:$AM,"&lt;="&amp;R$256,'Datos finales'!$G:$G,"=-1")</f>
         <v>1</v>
       </c>
       <c r="S258" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;R$257,'Datos finales'!$AM:$AM,"&lt;="&amp;S$257,'Datos finales'!$G:$G,"=1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;R$256,'Datos finales'!$AM:$AM,"&lt;="&amp;S$256,'Datos finales'!$G:$G,"=-1")</f>
         <v>0</v>
       </c>
       <c r="T258" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;S$257,'Datos finales'!$AM:$AM,"&lt;="&amp;T$257,'Datos finales'!$G:$G,"=1")</f>
-        <v>1</v>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;S$256,'Datos finales'!$AM:$AM,"&lt;="&amp;T$256,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B259" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259" s="25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J259" s="30" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K259" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;J$257,'Datos finales'!$AM:$AM,"&lt;="&amp;K$257,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;J$256,'Datos finales'!$AM:$AM,"&lt;="&amp;K$256,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="L259" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;K$257,'Datos finales'!$AM:$AM,"&lt;="&amp;L$257,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;K$256,'Datos finales'!$AM:$AM,"&lt;="&amp;L$256,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="M259" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;L$257,'Datos finales'!$AM:$AM,"&lt;="&amp;M$257,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;L$256,'Datos finales'!$AM:$AM,"&lt;="&amp;M$256,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="N259" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;M$257,'Datos finales'!$AM:$AM,"&lt;="&amp;N$257,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;M$256,'Datos finales'!$AM:$AM,"&lt;="&amp;N$256,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="O259" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;N$257,'Datos finales'!$AM:$AM,"&lt;="&amp;O$257,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;N$256,'Datos finales'!$AM:$AM,"&lt;="&amp;O$256,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="P259" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;O$257,'Datos finales'!$AM:$AM,"&lt;="&amp;P$257,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;O$256,'Datos finales'!$AM:$AM,"&lt;="&amp;P$256,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="Q259" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;P$257,'Datos finales'!$AM:$AM,"&lt;="&amp;Q$257,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;P$256,'Datos finales'!$AM:$AM,"&lt;="&amp;Q$256,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="R259" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;Q$257,'Datos finales'!$AM:$AM,"&lt;="&amp;R$257,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;Q$256,'Datos finales'!$AM:$AM,"&lt;="&amp;R$256,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
       </c>
       <c r="S259" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;R$257,'Datos finales'!$AM:$AM,"&lt;="&amp;S$257,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;R$256,'Datos finales'!$AM:$AM,"&lt;="&amp;S$256,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
       <c r="T259" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;S$257,'Datos finales'!$AM:$AM,"&lt;="&amp;T$257,'Datos finales'!$G:$G,"=-1")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;S$256,'Datos finales'!$AM:$AM,"&lt;="&amp;T$256,'Datos finales'!$G:$G,"=0")</f>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B260" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C260" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D260" s="25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J260" s="30" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="K260" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;J$257,'Datos finales'!$AM:$AM,"&lt;="&amp;K$257,'Datos finales'!$G:$G,"=0")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;J$256,'Datos finales'!$AM:$AM,"&lt;="&amp;K$256,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="L260" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;K$256,'Datos finales'!$AM:$AM,"&lt;="&amp;L$256,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
-      <c r="L260" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;K$257,'Datos finales'!$AM:$AM,"&lt;="&amp;L$257,'Datos finales'!$G:$G,"=0")</f>
+      <c r="M260" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;L$256,'Datos finales'!$AM:$AM,"&lt;="&amp;M$256,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
-      <c r="M260" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;L$257,'Datos finales'!$AM:$AM,"&lt;="&amp;M$257,'Datos finales'!$G:$G,"=0")</f>
+      <c r="N260" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;M$256,'Datos finales'!$AM:$AM,"&lt;="&amp;N$256,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
-      <c r="N260" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;M$257,'Datos finales'!$AM:$AM,"&lt;="&amp;N$257,'Datos finales'!$G:$G,"=0")</f>
+      <c r="O260" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;N$256,'Datos finales'!$AM:$AM,"&lt;="&amp;O$256,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
-      <c r="O260" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;N$257,'Datos finales'!$AM:$AM,"&lt;="&amp;O$257,'Datos finales'!$G:$G,"=0")</f>
+      <c r="P260" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;O$256,'Datos finales'!$AM:$AM,"&lt;="&amp;P$256,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
-      <c r="P260" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;O$257,'Datos finales'!$AM:$AM,"&lt;="&amp;P$257,'Datos finales'!$G:$G,"=0")</f>
+      <c r="Q260" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;P$256,'Datos finales'!$AM:$AM,"&lt;="&amp;Q$256,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
-      <c r="Q260" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;P$257,'Datos finales'!$AM:$AM,"&lt;="&amp;Q$257,'Datos finales'!$G:$G,"=0")</f>
+      <c r="R260" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;Q$256,'Datos finales'!$AM:$AM,"&lt;="&amp;R$256,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
-      <c r="R260" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;Q$257,'Datos finales'!$AM:$AM,"&lt;="&amp;R$257,'Datos finales'!$G:$G,"=0")</f>
+      <c r="S260" s="20">
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;R$256,'Datos finales'!$AM:$AM,"&lt;="&amp;S$256,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
-      <c r="S260" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;R$257,'Datos finales'!$AM:$AM,"&lt;="&amp;S$257,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
       <c r="T260" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;S$257,'Datos finales'!$AM:$AM,"&lt;="&amp;T$257,'Datos finales'!$G:$G,"=0")</f>
+        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;S$256,'Datos finales'!$AM:$AM,"&lt;="&amp;T$256,'Datos finales'!$G:$G,"=N/A")</f>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B261" s="25">
+        <v>4</v>
+      </c>
+      <c r="C261" s="25">
+        <v>4</v>
+      </c>
+      <c r="D261" s="25">
+        <v>0</v>
+      </c>
+      <c r="K261" cm="1">
+        <f t="array" ref="K261:T261">TRANSPOSE(_xlfn.ANCHORARRAY(D257))</f>
+        <v>6</v>
+      </c>
+      <c r="L261">
+        <v>5</v>
+      </c>
+      <c r="M261">
+        <v>7</v>
+      </c>
+      <c r="N261">
         <v>3</v>
       </c>
-      <c r="C261" s="25">
-        <v>3</v>
-      </c>
-      <c r="D261" s="25">
-        <v>3</v>
-      </c>
-      <c r="J261" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K261" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;J$257,'Datos finales'!$AM:$AM,"&lt;="&amp;K$257,'Datos finales'!$G:$G,"=N/A")</f>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
+      <c r="T261">
         <v>1</v>
-      </c>
-      <c r="L261" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;K$257,'Datos finales'!$AM:$AM,"&lt;="&amp;L$257,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="M261" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;L$257,'Datos finales'!$AM:$AM,"&lt;="&amp;M$257,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="N261" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;M$257,'Datos finales'!$AM:$AM,"&lt;="&amp;N$257,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="O261" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;N$257,'Datos finales'!$AM:$AM,"&lt;="&amp;O$257,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="P261" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;O$257,'Datos finales'!$AM:$AM,"&lt;="&amp;P$257,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="Q261" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;P$257,'Datos finales'!$AM:$AM,"&lt;="&amp;Q$257,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="R261" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;Q$257,'Datos finales'!$AM:$AM,"&lt;="&amp;R$257,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="S261" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;R$257,'Datos finales'!$AM:$AM,"&lt;="&amp;S$257,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="T261" s="20">
-        <f>COUNTIFS('Datos finales'!$AM:$AM,"&gt;"&amp;S$257,'Datos finales'!$AM:$AM,"&lt;="&amp;T$257,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="262" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B262" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C262" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D262" s="25">
         <v>0</v>
       </c>
-      <c r="K262" cm="1">
-        <f t="array" ref="K262:T262">TRANSPOSE(_xlfn.ANCHORARRAY(D258))</f>
-        <v>6</v>
+      <c r="K262" t="str" cm="1">
+        <f t="array" ref="K262:T262">TRANSPOSE(B257:B266)</f>
+        <v>&lt; 1</v>
       </c>
       <c r="L262">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M262">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N262">
         <v>3</v>
       </c>
       <c r="O262">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P262">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q262">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R262">
-        <v>2</v>
-      </c>
-      <c r="S262">
-        <v>0</v>
-      </c>
-      <c r="T262">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="S262" t="str">
+        <v>8-10</v>
+      </c>
+      <c r="T262" t="str">
+        <v>&gt; 10</v>
       </c>
     </row>
     <row r="263" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B263" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C263" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D263" s="25">
         <v>0</v>
       </c>
+      <c r="J263" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K263" s="79">
+        <f t="shared" ref="K263:R263" si="42">IF(K$261&lt;&gt;0, K257/K$261, "-")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L263" s="79">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="M263" s="79">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="N263" s="79">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="O263" s="79" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="P263" s="79" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="Q263" s="79" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+      <c r="R263" s="79">
+        <f t="shared" si="42"/>
+        <v>0.5</v>
+      </c>
+      <c r="S263" s="79" t="str">
+        <f>IF(S$261&lt;&gt;0, S257/S$261, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="T263" s="79">
+        <f>IF(T$261&lt;&gt;0, T257/T$261, "-")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="264" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B264" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C264" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D264" s="25">
+        <v>2</v>
+      </c>
+      <c r="J264" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="K264" s="79">
+        <f t="shared" ref="K264:R264" si="43">IF(K$261&lt;&gt;0, K258/K$261, "-")</f>
         <v>0</v>
       </c>
-      <c r="J264" s="30" t="s">
-        <v>890</v>
-      </c>
-      <c r="K264" s="21">
-        <f t="shared" ref="K264:R264" si="40">IF(K$262&lt;&gt;0, K258/K$262, "-")</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L264" s="21">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="M264" s="21">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="N264" s="21">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="O264" s="21" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="P264" s="21" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="Q264" s="21" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="R264" s="21">
-        <f t="shared" si="40"/>
-        <v>0.5</v>
-      </c>
-      <c r="S264" s="21" t="str">
-        <f>IF(S$262&lt;&gt;0, S258/S$262, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="T264" s="21">
-        <f>IF(T$262&lt;&gt;0, T258/T$262, "-")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B265" s="25">
-        <v>7</v>
-      </c>
-      <c r="C265" s="25">
-        <v>7</v>
-      </c>
-      <c r="D265" s="25">
-        <v>2</v>
-      </c>
-      <c r="J265" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K265" s="21">
-        <f t="shared" ref="K265:R265" si="41">IF(K$262&lt;&gt;0, K259/K$262, "-")</f>
-        <v>0</v>
-      </c>
-      <c r="L265" s="21">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M265" s="21">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="N265" s="21">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O265" s="21" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="P265" s="21" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="Q265" s="21" t="str">
-        <f t="shared" si="41"/>
-        <v>-</v>
-      </c>
-      <c r="R265" s="21">
-        <f t="shared" si="41"/>
-        <v>0.5</v>
-      </c>
-      <c r="S265" s="21" t="str">
-        <f t="shared" ref="S265:T265" si="42">IF(S$262&lt;&gt;0, S259/S$262, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="T265" s="21">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B266" s="87" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C266" s="25">
-        <v>10</v>
-      </c>
-      <c r="D266" s="25">
-        <v>0</v>
-      </c>
-      <c r="J266" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K266" s="21">
-        <f t="shared" ref="K266:R266" si="43">IF(K$262&lt;&gt;0, K260/K$262, "-")</f>
-        <v>0</v>
-      </c>
-      <c r="L266" s="21">
+      <c r="L264" s="79">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="M266" s="21">
+      <c r="M264" s="79">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="N266" s="21">
+      <c r="N264" s="79">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="O266" s="21" t="str">
+      <c r="O264" s="79" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="P266" s="21" t="str">
+      <c r="P264" s="79" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="Q266" s="21" t="str">
+      <c r="Q264" s="79" t="str">
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
-      <c r="R266" s="21">
+      <c r="R264" s="79">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="S266" s="21" t="str">
-        <f t="shared" ref="S266:T266" si="44">IF(S$262&lt;&gt;0, S260/S$262, "-")</f>
+        <v>0.5</v>
+      </c>
+      <c r="S264" s="79" t="str">
+        <f t="shared" ref="S264:T264" si="44">IF(S$261&lt;&gt;0, S258/S$261, "-")</f>
         <v>-</v>
       </c>
-      <c r="T266" s="21">
+      <c r="T264" s="79">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B267" s="72" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C267" s="25">
-        <v>10000</v>
-      </c>
-      <c r="D267" s="25">
-        <v>1</v>
-      </c>
-      <c r="J267" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K267" s="21">
-        <f t="shared" ref="K267:R267" si="45">IF(K$262&lt;&gt;0, K261/K$262, "-")</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L267" s="21">
+    <row r="265" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B265" s="73" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C265" s="25">
+        <v>10</v>
+      </c>
+      <c r="D265" s="25">
+        <v>0</v>
+      </c>
+      <c r="J265" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="K265" s="79">
+        <f t="shared" ref="K265:R265" si="45">IF(K$261&lt;&gt;0, K259/K$261, "-")</f>
+        <v>0</v>
+      </c>
+      <c r="L265" s="79">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M267" s="21">
+      <c r="M265" s="79">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N267" s="21">
+      <c r="N265" s="79">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="O267" s="21" t="str">
+      <c r="O265" s="79" t="str">
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
-      <c r="P267" s="21" t="str">
+      <c r="P265" s="79" t="str">
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
-      <c r="Q267" s="21" t="str">
+      <c r="Q265" s="79" t="str">
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
-      <c r="R267" s="21">
+      <c r="R265" s="79">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S267" s="21" t="str">
-        <f t="shared" ref="S267:T267" si="46">IF(S$262&lt;&gt;0, S261/S$262, "-")</f>
+      <c r="S265" s="79" t="str">
+        <f t="shared" ref="S265:T265" si="46">IF(S$261&lt;&gt;0, S259/S$261, "-")</f>
         <v>-</v>
       </c>
-      <c r="T267" s="21">
+      <c r="T265" s="79">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
+    <row r="266" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B266" s="72" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C266" s="25">
+        <v>10000</v>
+      </c>
+      <c r="D266" s="25">
+        <v>1</v>
+      </c>
+      <c r="J266" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K266" s="79">
+        <f t="shared" ref="K266:R266" si="47">IF(K$261&lt;&gt;0, K260/K$261, "-")</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L266" s="79">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M266" s="79">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N266" s="79">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O266" s="79" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="P266" s="79" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="Q266" s="79" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="R266" s="79">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="S266" s="79" t="str">
+        <f t="shared" ref="S266:T266" si="48">IF(S$261&lt;&gt;0, S260/S$261, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="T266" s="79">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B267" s="72"/>
+      <c r="C267" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D267" s="25"/>
+    </row>
     <row r="268" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B268" s="72"/>
-      <c r="C268" s="25" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D268" s="25"/>
-    </row>
-    <row r="269" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C269" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D269">
-        <f>SUM(_xlfn.ANCHORARRAY(D258))</f>
+      <c r="C268" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D268">
+        <f>SUM(_xlfn.ANCHORARRAY(D257))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="2:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="B271" s="37" t="s">
-        <v>1102</v>
-      </c>
+    <row r="270" spans="2:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="B270" s="37" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C270" s="72"/>
+      <c r="D270" s="72"/>
+    </row>
+    <row r="271" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B271" s="72"/>
       <c r="C271" s="72"/>
       <c r="D271" s="72"/>
     </row>
     <row r="272" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B272" s="72"/>
-      <c r="C272" s="72"/>
-      <c r="D272" s="72"/>
+      <c r="B272" s="28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C272" s="28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D272" s="28" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J272" s="46">
+        <v>0</v>
+      </c>
+      <c r="K272" s="28" cm="1">
+        <f t="array" ref="K272:Q272">TRANSPOSE(C273:C279)</f>
+        <v>1</v>
+      </c>
+      <c r="L272" s="28">
+        <v>2</v>
+      </c>
+      <c r="M272" s="28">
+        <v>5</v>
+      </c>
+      <c r="N272" s="28">
+        <v>10</v>
+      </c>
+      <c r="O272" s="28">
+        <v>20</v>
+      </c>
+      <c r="P272" s="28">
+        <v>50</v>
+      </c>
+      <c r="Q272" s="28">
+        <v>10000</v>
+      </c>
     </row>
     <row r="273" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B273" s="28" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C273" s="28" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D273" s="28" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J273" s="46">
-        <v>0</v>
-      </c>
-      <c r="K273" s="28" cm="1">
-        <f t="array" ref="K273:Q273">TRANSPOSE(C274:C280)</f>
+      <c r="B273" s="25">
         <v>1</v>
       </c>
-      <c r="L273" s="28">
-        <v>2</v>
-      </c>
-      <c r="M273" s="28">
-        <v>5</v>
-      </c>
-      <c r="N273" s="28">
-        <v>10</v>
-      </c>
-      <c r="O273" s="28">
-        <v>20</v>
-      </c>
-      <c r="P273" s="28">
-        <v>50</v>
-      </c>
-      <c r="Q273" s="28">
-        <v>10000</v>
+      <c r="C273" s="25">
+        <v>1</v>
+      </c>
+      <c r="D273" s="25" cm="1">
+        <f t="array" ref="D273:D279">FREQUENCY('Datos finales'!AN$3:AN$107,Cálculos!C273:C278)</f>
+        <v>27</v>
+      </c>
+      <c r="J273" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K273" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;J$272,'Datos finales'!$AN:$AN,"&lt;="&amp;K$272,'Datos finales'!$G:$G,"=1")</f>
+        <v>23</v>
+      </c>
+      <c r="L273" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;K$272,'Datos finales'!$AN:$AN,"&lt;="&amp;L$272,'Datos finales'!$G:$G,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="M273" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;L$272,'Datos finales'!$AN:$AN,"&lt;="&amp;M$272,'Datos finales'!$G:$G,"=1")</f>
+        <v>7</v>
+      </c>
+      <c r="N273" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;M$272,'Datos finales'!$AN:$AN,"&lt;="&amp;N$272,'Datos finales'!$G:$G,"=1")</f>
+        <v>4</v>
+      </c>
+      <c r="O273" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;N$272,'Datos finales'!$AN:$AN,"&lt;="&amp;O$272,'Datos finales'!$G:$G,"=1")</f>
+        <v>7</v>
+      </c>
+      <c r="P273" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;O$272,'Datos finales'!$AN:$AN,"&lt;="&amp;P$272,'Datos finales'!$G:$G,"=1")</f>
+        <v>4</v>
+      </c>
+      <c r="Q273" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;P$272,'Datos finales'!$AN:$AN,"&lt;="&amp;Q$272,'Datos finales'!$G:$G,"=1")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B274" s="25">
+        <v>2</v>
+      </c>
+      <c r="C274" s="25">
+        <v>2</v>
+      </c>
+      <c r="D274" s="25">
+        <v>2</v>
+      </c>
+      <c r="J274" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="K274" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;J$272,'Datos finales'!$AN:$AN,"&lt;="&amp;K$272,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="L274" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;K$272,'Datos finales'!$AN:$AN,"&lt;="&amp;L$272,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="M274" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;L$272,'Datos finales'!$AN:$AN,"&lt;="&amp;M$272,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="N274" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;M$272,'Datos finales'!$AN:$AN,"&lt;="&amp;N$272,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="O274" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;N$272,'Datos finales'!$AN:$AN,"&lt;="&amp;O$272,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="P274" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;O$272,'Datos finales'!$AN:$AN,"&lt;="&amp;P$272,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="Q274" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;P$272,'Datos finales'!$AN:$AN,"&lt;="&amp;Q$272,'Datos finales'!$G:$G,"=-1")</f>
         <v>1</v>
       </c>
-      <c r="C274" s="25">
+    </row>
+    <row r="275" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B275" s="73" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C275" s="25">
+        <v>5</v>
+      </c>
+      <c r="D275" s="25">
+        <v>8</v>
+      </c>
+      <c r="J275" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="K275" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;J$272,'Datos finales'!$AN:$AN,"&lt;="&amp;K$272,'Datos finales'!$G:$G,"=0")</f>
+        <v>3</v>
+      </c>
+      <c r="L275" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;K$272,'Datos finales'!$AN:$AN,"&lt;="&amp;L$272,'Datos finales'!$G:$G,"=0")</f>
         <v>1</v>
       </c>
-      <c r="D274" s="25" cm="1">
-        <f t="array" ref="D274:D280">FREQUENCY('Datos finales'!AN$3:AN$107,Cálculos!C274:C279)</f>
+      <c r="M275" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;L$272,'Datos finales'!$AN:$AN,"&lt;="&amp;M$272,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="N275" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;M$272,'Datos finales'!$AN:$AN,"&lt;="&amp;N$272,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="O275" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;N$272,'Datos finales'!$AN:$AN,"&lt;="&amp;O$272,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="P275" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;O$272,'Datos finales'!$AN:$AN,"&lt;="&amp;P$272,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="Q275" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;P$272,'Datos finales'!$AN:$AN,"&lt;="&amp;Q$272,'Datos finales'!$G:$G,"=0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B276" s="74" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C276" s="25">
+        <v>10</v>
+      </c>
+      <c r="D276" s="25">
+        <v>4</v>
+      </c>
+      <c r="J276" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K276" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;J$272,'Datos finales'!$AN:$AN,"&lt;="&amp;K$272,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="L276" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;K$272,'Datos finales'!$AN:$AN,"&lt;="&amp;L$272,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="M276" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;L$272,'Datos finales'!$AN:$AN,"&lt;="&amp;M$272,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="N276" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;M$272,'Datos finales'!$AN:$AN,"&lt;="&amp;N$272,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="O276" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;N$272,'Datos finales'!$AN:$AN,"&lt;="&amp;O$272,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="P276" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;O$272,'Datos finales'!$AN:$AN,"&lt;="&amp;P$272,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="Q276" s="20">
+        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;P$272,'Datos finales'!$AN:$AN,"&lt;="&amp;Q$272,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B277" s="74" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C277" s="25">
+        <v>20</v>
+      </c>
+      <c r="D277" s="25">
+        <v>7</v>
+      </c>
+      <c r="K277" cm="1">
+        <f t="array" ref="K277:Q277">TRANSPOSE(_xlfn.ANCHORARRAY(D273))</f>
         <v>27</v>
       </c>
-      <c r="J274" s="30" t="s">
-        <v>890</v>
-      </c>
-      <c r="K274" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;J$273,'Datos finales'!$AN:$AN,"&lt;="&amp;K$273,'Datos finales'!$G:$G,"=1")</f>
-        <v>23</v>
-      </c>
-      <c r="L274" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;K$273,'Datos finales'!$AN:$AN,"&lt;="&amp;L$273,'Datos finales'!$G:$G,"=1")</f>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>8</v>
+      </c>
+      <c r="N277">
+        <v>4</v>
+      </c>
+      <c r="O277">
+        <v>7</v>
+      </c>
+      <c r="P277">
+        <v>4</v>
+      </c>
+      <c r="Q277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B278" s="74" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C278" s="25">
+        <v>50</v>
+      </c>
+      <c r="D278" s="25">
+        <v>4</v>
+      </c>
+      <c r="K278" cm="1">
+        <f t="array" ref="K278:Q278">TRANSPOSE(B273:B279)</f>
         <v>1</v>
-      </c>
-      <c r="M274" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;L$273,'Datos finales'!$AN:$AN,"&lt;="&amp;M$273,'Datos finales'!$G:$G,"=1")</f>
-        <v>7</v>
-      </c>
-      <c r="N274" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;M$273,'Datos finales'!$AN:$AN,"&lt;="&amp;N$273,'Datos finales'!$G:$G,"=1")</f>
-        <v>4</v>
-      </c>
-      <c r="O274" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;N$273,'Datos finales'!$AN:$AN,"&lt;="&amp;O$273,'Datos finales'!$G:$G,"=1")</f>
-        <v>7</v>
-      </c>
-      <c r="P274" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;O$273,'Datos finales'!$AN:$AN,"&lt;="&amp;P$273,'Datos finales'!$G:$G,"=1")</f>
-        <v>4</v>
-      </c>
-      <c r="Q274" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;P$273,'Datos finales'!$AN:$AN,"&lt;="&amp;Q$273,'Datos finales'!$G:$G,"=1")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B275" s="25">
-        <v>2</v>
-      </c>
-      <c r="C275" s="25">
-        <v>2</v>
-      </c>
-      <c r="D275" s="25">
-        <v>2</v>
-      </c>
-      <c r="J275" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K275" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;J$273,'Datos finales'!$AN:$AN,"&lt;="&amp;K$273,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="L275" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;K$273,'Datos finales'!$AN:$AN,"&lt;="&amp;L$273,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="M275" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;L$273,'Datos finales'!$AN:$AN,"&lt;="&amp;M$273,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="N275" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;M$273,'Datos finales'!$AN:$AN,"&lt;="&amp;N$273,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="O275" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;N$273,'Datos finales'!$AN:$AN,"&lt;="&amp;O$273,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="P275" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;O$273,'Datos finales'!$AN:$AN,"&lt;="&amp;P$273,'Datos finales'!$G:$G,"=-1")</f>
-        <v>0</v>
-      </c>
-      <c r="Q275" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;P$273,'Datos finales'!$AN:$AN,"&lt;="&amp;Q$273,'Datos finales'!$G:$G,"=-1")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B276" s="87" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C276" s="25">
-        <v>5</v>
-      </c>
-      <c r="D276" s="25">
-        <v>8</v>
-      </c>
-      <c r="J276" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K276" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;J$273,'Datos finales'!$AN:$AN,"&lt;="&amp;K$273,'Datos finales'!$G:$G,"=0")</f>
-        <v>3</v>
-      </c>
-      <c r="L276" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;K$273,'Datos finales'!$AN:$AN,"&lt;="&amp;L$273,'Datos finales'!$G:$G,"=0")</f>
-        <v>1</v>
-      </c>
-      <c r="M276" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;L$273,'Datos finales'!$AN:$AN,"&lt;="&amp;M$273,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="N276" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;M$273,'Datos finales'!$AN:$AN,"&lt;="&amp;N$273,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="O276" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;N$273,'Datos finales'!$AN:$AN,"&lt;="&amp;O$273,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="P276" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;O$273,'Datos finales'!$AN:$AN,"&lt;="&amp;P$273,'Datos finales'!$G:$G,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="Q276" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;P$273,'Datos finales'!$AN:$AN,"&lt;="&amp;Q$273,'Datos finales'!$G:$G,"=0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B277" s="88" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C277" s="25">
-        <v>10</v>
-      </c>
-      <c r="D277" s="25">
-        <v>4</v>
-      </c>
-      <c r="J277" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K277" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;J$273,'Datos finales'!$AN:$AN,"&lt;="&amp;K$273,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>1</v>
-      </c>
-      <c r="L277" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;K$273,'Datos finales'!$AN:$AN,"&lt;="&amp;L$273,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="M277" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;L$273,'Datos finales'!$AN:$AN,"&lt;="&amp;M$273,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>1</v>
-      </c>
-      <c r="N277" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;M$273,'Datos finales'!$AN:$AN,"&lt;="&amp;N$273,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="O277" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;N$273,'Datos finales'!$AN:$AN,"&lt;="&amp;O$273,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="P277" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;O$273,'Datos finales'!$AN:$AN,"&lt;="&amp;P$273,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="Q277" s="20">
-        <f>COUNTIFS('Datos finales'!$AN:$AN,"&gt;"&amp;P$273,'Datos finales'!$AN:$AN,"&lt;="&amp;Q$273,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B278" s="88" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C278" s="25">
-        <v>20</v>
-      </c>
-      <c r="D278" s="25">
-        <v>7</v>
-      </c>
-      <c r="K278" cm="1">
-        <f t="array" ref="K278:Q278">TRANSPOSE(_xlfn.ANCHORARRAY(D274))</f>
-        <v>27</v>
       </c>
       <c r="L278">
         <v>2</v>
       </c>
-      <c r="M278">
-        <v>8</v>
-      </c>
-      <c r="N278">
-        <v>4</v>
-      </c>
-      <c r="O278">
-        <v>7</v>
-      </c>
-      <c r="P278">
-        <v>4</v>
-      </c>
-      <c r="Q278">
+      <c r="M278" t="str">
+        <v>3-5</v>
+      </c>
+      <c r="N278" t="str">
+        <v>6-10</v>
+      </c>
+      <c r="O278" t="str">
+        <v>11-20</v>
+      </c>
+      <c r="P278" t="str">
+        <v>21-50</v>
+      </c>
+      <c r="Q278" t="str">
+        <v>&gt; 50</v>
+      </c>
+    </row>
+    <row r="279" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B279" s="25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C279" s="25">
+        <v>10000</v>
+      </c>
+      <c r="D279" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B279" s="88" t="s">
+      <c r="J279" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K279" s="79">
+        <f>IF(K$277&lt;&gt;0, K273/K$277, "-")</f>
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="L279" s="79">
+        <f t="shared" ref="L279:Q279" si="49">IF(L$277&lt;&gt;0, L273/L$277, "-")</f>
+        <v>0.5</v>
+      </c>
+      <c r="M279" s="79">
+        <f t="shared" si="49"/>
+        <v>0.875</v>
+      </c>
+      <c r="N279" s="79">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="O279" s="79">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="P279" s="79">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q279" s="79">
+        <f t="shared" si="49"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="280" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B280" s="72"/>
+      <c r="C280" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D280" s="25"/>
+      <c r="F280" s="2"/>
+      <c r="J280" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="K280" s="79">
+        <f t="shared" ref="K280:Q282" si="50">IF(K$277&lt;&gt;0, K274/K$277, "-")</f>
+        <v>0</v>
+      </c>
+      <c r="L280" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="M280" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="N280" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O280" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="P280" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q280" s="79">
+        <f t="shared" si="50"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="281" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D281">
+        <f>SUM(D273:D279)</f>
+        <v>55</v>
+      </c>
+      <c r="J281" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="K281" s="79">
+        <f t="shared" si="50"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L281" s="79">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="M281" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="N281" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O281" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="P281" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q281" s="79">
+        <f t="shared" si="50"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="282" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J282" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K282" s="79">
+        <f t="shared" si="50"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="L282" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="M282" s="79">
+        <f t="shared" si="50"/>
+        <v>0.125</v>
+      </c>
+      <c r="N282" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O282" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="P282" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q282" s="79">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B283" s="37" t="s">
         <v>1106</v>
       </c>
-      <c r="C279" s="25">
-        <v>50</v>
-      </c>
-      <c r="D279" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B280" s="25" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C280" s="25">
-        <v>10000</v>
-      </c>
-      <c r="D280" s="25">
-        <v>3</v>
-      </c>
-      <c r="J280" s="30" t="s">
-        <v>890</v>
-      </c>
-      <c r="K280" s="21">
-        <f>IF(K$278&lt;&gt;0, K274/K$278, "-")</f>
-        <v>0.85185185185185186</v>
-      </c>
-      <c r="L280" s="21">
-        <f t="shared" ref="L280:Q280" si="47">IF(L$278&lt;&gt;0, L274/L$278, "-")</f>
-        <v>0.5</v>
-      </c>
-      <c r="M280" s="21">
-        <f t="shared" si="47"/>
-        <v>0.875</v>
-      </c>
-      <c r="N280" s="21">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="O280" s="21">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="P280" s="21">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="Q280" s="21">
-        <f t="shared" si="47"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="281" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B281" s="72"/>
-      <c r="C281" s="25" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D281" s="25"/>
-      <c r="F281" s="2"/>
-      <c r="J281" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K281" s="21">
-        <f t="shared" ref="K281:Q283" si="48">IF(K$278&lt;&gt;0, K275/K$278, "-")</f>
-        <v>0</v>
-      </c>
-      <c r="L281" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M281" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="N281" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="O281" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="P281" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="Q281" s="21">
-        <f t="shared" si="48"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="282" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C282" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D282">
-        <f>SUM(D274:D280)</f>
-        <v>55</v>
-      </c>
-      <c r="J282" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K282" s="21">
-        <f t="shared" si="48"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L282" s="21">
-        <f t="shared" si="48"/>
-        <v>0.5</v>
-      </c>
-      <c r="M282" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="N282" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="O282" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="P282" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="Q282" s="21">
-        <f t="shared" si="48"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="283" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J283" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K283" s="21">
-        <f t="shared" si="48"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="L283" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M283" s="21">
-        <f t="shared" si="48"/>
-        <v>0.125</v>
-      </c>
-      <c r="N283" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="O283" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="P283" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="Q283" s="21">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B284" s="37" t="s">
-        <v>1108</v>
-      </c>
+      <c r="C283" s="72"/>
+      <c r="D283" s="72"/>
+    </row>
+    <row r="284" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B284" s="72"/>
       <c r="C284" s="72"/>
       <c r="D284" s="72"/>
     </row>
     <row r="285" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B285" s="72"/>
-      <c r="C285" s="72"/>
-      <c r="D285" s="72"/>
+      <c r="B285" s="28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J285" s="46">
+        <v>0</v>
+      </c>
+      <c r="K285" s="28" cm="1">
+        <f t="array" ref="K285:Q285">TRANSPOSE(C286:C292)</f>
+        <v>15</v>
+      </c>
+      <c r="L285" s="28">
+        <v>30</v>
+      </c>
+      <c r="M285" s="28">
+        <v>60</v>
+      </c>
+      <c r="N285" s="28">
+        <v>90</v>
+      </c>
+      <c r="O285" s="28">
+        <v>120</v>
+      </c>
+      <c r="P285" s="28">
+        <v>180</v>
+      </c>
+      <c r="Q285" s="28">
+        <v>100000</v>
+      </c>
     </row>
     <row r="286" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B286" s="28" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C286" s="28" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J286" s="46">
+      <c r="B286" s="25" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C286" s="25">
+        <v>15</v>
+      </c>
+      <c r="D286" s="25" cm="1">
+        <f t="array" ref="D286:D292">FREQUENCY('Datos finales'!AO$3:AO$107,Cálculos!C286:C291)</f>
+        <v>4</v>
+      </c>
+      <c r="J286" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="K286" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;J$285,'Datos finales'!$AO:$AO,"&lt;="&amp;K$285,'Datos finales'!$G:$G,"=1")</f>
+        <v>4</v>
+      </c>
+      <c r="L286" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;K$285,'Datos finales'!$AO:$AO,"&lt;="&amp;L$285,'Datos finales'!$G:$G,"=1")</f>
+        <v>4</v>
+      </c>
+      <c r="M286" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;L$285,'Datos finales'!$AO:$AO,"&lt;="&amp;M$285,'Datos finales'!$G:$G,"=1")</f>
+        <v>12</v>
+      </c>
+      <c r="N286" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;M$285,'Datos finales'!$AO:$AO,"&lt;="&amp;N$285,'Datos finales'!$G:$G,"=1")</f>
+        <v>3</v>
+      </c>
+      <c r="O286" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;N$285,'Datos finales'!$AO:$AO,"&lt;="&amp;O$285,'Datos finales'!$G:$G,"=1")</f>
+        <v>2</v>
+      </c>
+      <c r="P286" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;O$285,'Datos finales'!$AO:$AO,"&lt;="&amp;P$285,'Datos finales'!$G:$G,"=1")</f>
+        <v>2</v>
+      </c>
+      <c r="Q286" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;P$285,'Datos finales'!$AO:$AO,"&lt;="&amp;Q$285,'Datos finales'!$G:$G,"=1")</f>
         <v>0</v>
-      </c>
-      <c r="K286" s="28" cm="1">
-        <f t="array" ref="K286:Q286">TRANSPOSE(C287:C293)</f>
-        <v>15</v>
-      </c>
-      <c r="L286" s="28">
-        <v>30</v>
-      </c>
-      <c r="M286" s="28">
-        <v>60</v>
-      </c>
-      <c r="N286" s="28">
-        <v>90</v>
-      </c>
-      <c r="O286" s="28">
-        <v>120</v>
-      </c>
-      <c r="P286" s="28">
-        <v>180</v>
-      </c>
-      <c r="Q286" s="28">
-        <v>100000</v>
       </c>
     </row>
     <row r="287" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B287" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C287" s="25">
+        <v>30</v>
+      </c>
+      <c r="D287" s="25">
+        <v>5</v>
+      </c>
+      <c r="J287" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="K287" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;J$285,'Datos finales'!$AO:$AO,"&lt;="&amp;K$285,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="L287" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;K$285,'Datos finales'!$AO:$AO,"&lt;="&amp;L$285,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="M287" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;L$285,'Datos finales'!$AO:$AO,"&lt;="&amp;M$285,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="N287" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;M$285,'Datos finales'!$AO:$AO,"&lt;="&amp;N$285,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="O287" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;N$285,'Datos finales'!$AO:$AO,"&lt;="&amp;O$285,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="P287" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;O$285,'Datos finales'!$AO:$AO,"&lt;="&amp;P$285,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+      <c r="Q287" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;P$285,'Datos finales'!$AO:$AO,"&lt;="&amp;Q$285,'Datos finales'!$G:$G,"=-1")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B288" s="73" t="s">
         <v>1109</v>
       </c>
-      <c r="C287" s="25">
+      <c r="C288" s="25">
+        <v>60</v>
+      </c>
+      <c r="D288" s="25">
         <v>15</v>
       </c>
-      <c r="D287" s="25" cm="1">
-        <f t="array" ref="D287:D293">FREQUENCY('Datos finales'!AO$3:AO$107,Cálculos!C287:C292)</f>
+      <c r="J288" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="K288" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;J$285,'Datos finales'!$AO:$AO,"&lt;="&amp;K$285,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="L288" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;K$285,'Datos finales'!$AO:$AO,"&lt;="&amp;L$285,'Datos finales'!$G:$G,"=0")</f>
+        <v>1</v>
+      </c>
+      <c r="M288" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;L$285,'Datos finales'!$AO:$AO,"&lt;="&amp;M$285,'Datos finales'!$G:$G,"=0")</f>
+        <v>3</v>
+      </c>
+      <c r="N288" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;M$285,'Datos finales'!$AO:$AO,"&lt;="&amp;N$285,'Datos finales'!$G:$G,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="O288" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;N$285,'Datos finales'!$AO:$AO,"&lt;="&amp;O$285,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="P288" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;O$285,'Datos finales'!$AO:$AO,"&lt;="&amp;P$285,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+      <c r="Q288" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;P$285,'Datos finales'!$AO:$AO,"&lt;="&amp;Q$285,'Datos finales'!$G:$G,"=0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B289" s="74" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C289" s="25">
+        <v>90</v>
+      </c>
+      <c r="D289" s="25">
+        <v>5</v>
+      </c>
+      <c r="J289" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K289" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;J$285,'Datos finales'!$AO:$AO,"&lt;="&amp;K$285,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="L289" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;K$285,'Datos finales'!$AO:$AO,"&lt;="&amp;L$285,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="M289" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;L$285,'Datos finales'!$AO:$AO,"&lt;="&amp;M$285,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="N289" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;M$285,'Datos finales'!$AO:$AO,"&lt;="&amp;N$285,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="O289" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;N$285,'Datos finales'!$AO:$AO,"&lt;="&amp;O$285,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="P289" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;O$285,'Datos finales'!$AO:$AO,"&lt;="&amp;P$285,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="Q289" s="20">
+        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;P$285,'Datos finales'!$AO:$AO,"&lt;="&amp;Q$285,'Datos finales'!$G:$G,"=N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B290" s="74" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C290" s="25">
+        <v>120</v>
+      </c>
+      <c r="D290" s="25">
+        <v>3</v>
+      </c>
+      <c r="K290" cm="1">
+        <f t="array" ref="K290:Q290">TRANSPOSE(_xlfn.ANCHORARRAY(D286))</f>
         <v>4</v>
       </c>
-      <c r="J287" s="30" t="s">
+      <c r="L290">
+        <v>5</v>
+      </c>
+      <c r="M290">
+        <v>15</v>
+      </c>
+      <c r="N290">
+        <v>5</v>
+      </c>
+      <c r="O290">
+        <v>3</v>
+      </c>
+      <c r="P290">
+        <v>2</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B291" s="74" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C291" s="25">
+        <v>180</v>
+      </c>
+      <c r="D291" s="25">
+        <v>2</v>
+      </c>
+      <c r="K291" t="str" cm="1">
+        <f t="array" ref="K291:Q291">TRANSPOSE(B286:B292)</f>
+        <v>&lt; 15'</v>
+      </c>
+      <c r="L291" t="str">
+        <v>16'-30'</v>
+      </c>
+      <c r="M291" t="str">
+        <v>31'-60'</v>
+      </c>
+      <c r="N291" t="str">
+        <v>61'-90'</v>
+      </c>
+      <c r="O291" t="str">
+        <v>91'-120'</v>
+      </c>
+      <c r="P291" t="str">
+        <v>121'-180'</v>
+      </c>
+      <c r="Q291" t="str">
+        <v>&gt; 180'</v>
+      </c>
+    </row>
+    <row r="292" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B292" s="25" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C292" s="25">
+        <v>100000</v>
+      </c>
+      <c r="D292" s="25">
+        <v>0</v>
+      </c>
+      <c r="J292" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="K287" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;J$286,'Datos finales'!$AO:$AO,"&lt;="&amp;K$286,'Datos finales'!$G:$G,"=1")</f>
-        <v>4</v>
-      </c>
-      <c r="L287" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;K$286,'Datos finales'!$AO:$AO,"&lt;="&amp;L$286,'Datos finales'!$G:$G,"=1")</f>
-        <v>4</v>
-      </c>
-      <c r="M287" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;L$286,'Datos finales'!$AO:$AO,"&lt;="&amp;M$286,'Datos finales'!$G:$G,"=1")</f>
-        <v>12</v>
-      </c>
-      <c r="N287" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;M$286,'Datos finales'!$AO:$AO,"&lt;="&amp;N$286,'Datos finales'!$G:$G,"=1")</f>
-        <v>3</v>
-      </c>
-      <c r="O287" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;N$286,'Datos finales'!$AO:$AO,"&lt;="&amp;O$286,'Datos finales'!$G:$G,"=1")</f>
-        <v>2</v>
-      </c>
-      <c r="P287" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;O$286,'Datos finales'!$AO:$AO,"&lt;="&amp;P$286,'Datos finales'!$G:$G,"=1")</f>
-        <v>2</v>
-      </c>
-      <c r="Q287" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;P$286,'Datos finales'!$AO:$AO,"&lt;="&amp;Q$286,'Datos finales'!$G:$G,"=1")</f>
+      <c r="K292" s="79">
+        <f>IF(K$290&lt;&gt;0, K286/K$290, "-")</f>
+        <v>1</v>
+      </c>
+      <c r="L292" s="79">
+        <f t="shared" ref="L292:Q292" si="51">IF(L$290&lt;&gt;0, L286/L$290, "-")</f>
+        <v>0.8</v>
+      </c>
+      <c r="M292" s="79">
+        <f t="shared" si="51"/>
+        <v>0.8</v>
+      </c>
+      <c r="N292" s="79">
+        <f t="shared" si="51"/>
+        <v>0.6</v>
+      </c>
+      <c r="O292" s="79">
+        <f t="shared" si="51"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P292" s="79">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="Q292" s="79" t="str">
+        <f t="shared" si="51"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="293" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B293" s="72"/>
+      <c r="C293" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D293" s="25"/>
+      <c r="J293" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="K293" s="79">
+        <f t="shared" ref="K293:Q295" si="52">IF(K$290&lt;&gt;0, K287/K$290, "-")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B288" s="25" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C288" s="25">
-        <v>30</v>
-      </c>
-      <c r="D288" s="25">
-        <v>5</v>
-      </c>
-      <c r="J288" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K288" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;J$286,'Datos finales'!$AO:$AO,"&lt;="&amp;K$286,'Datos finales'!$G:$G,"=-1")</f>
+      <c r="L293" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="L288" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;K$286,'Datos finales'!$AO:$AO,"&lt;="&amp;L$286,'Datos finales'!$G:$G,"=-1")</f>
+      <c r="M293" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="M288" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;L$286,'Datos finales'!$AO:$AO,"&lt;="&amp;M$286,'Datos finales'!$G:$G,"=-1")</f>
+      <c r="N293" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="N288" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;M$286,'Datos finales'!$AO:$AO,"&lt;="&amp;N$286,'Datos finales'!$G:$G,"=-1")</f>
+      <c r="O293" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O288" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;N$286,'Datos finales'!$AO:$AO,"&lt;="&amp;O$286,'Datos finales'!$G:$G,"=-1")</f>
+      <c r="P293" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="P288" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;O$286,'Datos finales'!$AO:$AO,"&lt;="&amp;P$286,'Datos finales'!$G:$G,"=-1")</f>
+      <c r="Q293" s="79" t="str">
+        <f t="shared" si="52"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="294" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D294">
+        <f>SUM(D286:D292)</f>
+        <v>34</v>
+      </c>
+      <c r="J294" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="K294" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="Q288" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;P$286,'Datos finales'!$AO:$AO,"&lt;="&amp;Q$286,'Datos finales'!$G:$G,"=-1")</f>
+      <c r="L294" s="79">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="M294" s="79">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="N294" s="79">
+        <f t="shared" si="52"/>
+        <v>0.4</v>
+      </c>
+      <c r="O294" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B289" s="87" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C289" s="25">
-        <v>60</v>
-      </c>
-      <c r="D289" s="25">
-        <v>15</v>
-      </c>
-      <c r="J289" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K289" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;J$286,'Datos finales'!$AO:$AO,"&lt;="&amp;K$286,'Datos finales'!$G:$G,"=0")</f>
+      <c r="P294" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="L289" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;K$286,'Datos finales'!$AO:$AO,"&lt;="&amp;L$286,'Datos finales'!$G:$G,"=0")</f>
-        <v>1</v>
-      </c>
-      <c r="M289" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;L$286,'Datos finales'!$AO:$AO,"&lt;="&amp;M$286,'Datos finales'!$G:$G,"=0")</f>
-        <v>3</v>
-      </c>
-      <c r="N289" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;M$286,'Datos finales'!$AO:$AO,"&lt;="&amp;N$286,'Datos finales'!$G:$G,"=0")</f>
-        <v>2</v>
-      </c>
-      <c r="O289" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;N$286,'Datos finales'!$AO:$AO,"&lt;="&amp;O$286,'Datos finales'!$G:$G,"=0")</f>
+      <c r="Q294" s="79" t="str">
+        <f t="shared" si="52"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="295" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J295" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K295" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="P289" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;O$286,'Datos finales'!$AO:$AO,"&lt;="&amp;P$286,'Datos finales'!$G:$G,"=0")</f>
+      <c r="L295" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="Q289" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;P$286,'Datos finales'!$AO:$AO,"&lt;="&amp;Q$286,'Datos finales'!$G:$G,"=0")</f>
+      <c r="M295" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B290" s="88" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C290" s="25">
-        <v>90</v>
-      </c>
-      <c r="D290" s="25">
-        <v>5</v>
-      </c>
-      <c r="J290" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K290" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;J$286,'Datos finales'!$AO:$AO,"&lt;="&amp;K$286,'Datos finales'!$G:$G,"=N/A")</f>
+      <c r="N295" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="L290" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;K$286,'Datos finales'!$AO:$AO,"&lt;="&amp;L$286,'Datos finales'!$G:$G,"=N/A")</f>
+      <c r="O295" s="79">
+        <f t="shared" si="52"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P295" s="79">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="M290" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;L$286,'Datos finales'!$AO:$AO,"&lt;="&amp;M$286,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="N290" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;M$286,'Datos finales'!$AO:$AO,"&lt;="&amp;N$286,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="O290" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;N$286,'Datos finales'!$AO:$AO,"&lt;="&amp;O$286,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>1</v>
-      </c>
-      <c r="P290" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;O$286,'Datos finales'!$AO:$AO,"&lt;="&amp;P$286,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="Q290" s="20">
-        <f>COUNTIFS('Datos finales'!$AO:$AO,"&gt;"&amp;P$286,'Datos finales'!$AO:$AO,"&lt;="&amp;Q$286,'Datos finales'!$G:$G,"=N/A")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B291" s="88" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C291" s="25">
-        <v>120</v>
-      </c>
-      <c r="D291" s="25">
-        <v>3</v>
-      </c>
-      <c r="K291" cm="1">
-        <f t="array" ref="K291:Q291">TRANSPOSE(_xlfn.ANCHORARRAY(D287))</f>
-        <v>4</v>
-      </c>
-      <c r="L291">
-        <v>5</v>
-      </c>
-      <c r="M291">
-        <v>15</v>
-      </c>
-      <c r="N291">
-        <v>5</v>
-      </c>
-      <c r="O291">
-        <v>3</v>
-      </c>
-      <c r="P291">
-        <v>2</v>
-      </c>
-      <c r="Q291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B292" s="88" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C292" s="25">
-        <v>180</v>
-      </c>
-      <c r="D292" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B293" s="25" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C293" s="25">
-        <v>100000</v>
-      </c>
-      <c r="D293" s="25">
-        <v>0</v>
-      </c>
-      <c r="J293" s="30" t="s">
-        <v>890</v>
-      </c>
-      <c r="K293" s="21">
-        <f>IF(K$291&lt;&gt;0, K287/K$291, "-")</f>
-        <v>1</v>
-      </c>
-      <c r="L293" s="21">
-        <f t="shared" ref="L293:Q293" si="49">IF(L$291&lt;&gt;0, L287/L$291, "-")</f>
-        <v>0.8</v>
-      </c>
-      <c r="M293" s="21">
-        <f t="shared" si="49"/>
-        <v>0.8</v>
-      </c>
-      <c r="N293" s="21">
-        <f t="shared" si="49"/>
-        <v>0.6</v>
-      </c>
-      <c r="O293" s="21">
-        <f t="shared" si="49"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P293" s="21">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Q293" s="21" t="str">
-        <f t="shared" si="49"/>
+      <c r="Q295" s="79" t="str">
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
     </row>
-    <row r="294" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B294" s="72"/>
-      <c r="C294" s="25" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D294" s="25"/>
-      <c r="J294" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="K294" s="21">
-        <f t="shared" ref="K294:Q296" si="50">IF(K$291&lt;&gt;0, K288/K$291, "-")</f>
-        <v>0</v>
-      </c>
-      <c r="L294" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="M294" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="N294" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="O294" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="P294" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="Q294" s="21" t="str">
-        <f t="shared" si="50"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="295" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C295" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D295">
-        <f>SUM(D287:D293)</f>
-        <v>34</v>
-      </c>
-      <c r="J295" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K295" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="L295" s="21">
-        <f t="shared" si="50"/>
-        <v>0.2</v>
-      </c>
-      <c r="M295" s="21">
-        <f t="shared" si="50"/>
-        <v>0.2</v>
-      </c>
-      <c r="N295" s="21">
-        <f t="shared" si="50"/>
-        <v>0.4</v>
-      </c>
-      <c r="O295" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="P295" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="Q295" s="21" t="str">
-        <f t="shared" si="50"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="296" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J296" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="K296" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="L296" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="M296" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="N296" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="O296" s="21">
-        <f t="shared" si="50"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P296" s="21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="Q296" s="21" t="str">
-        <f t="shared" si="50"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="334" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F334" t="s">
+    <row r="333" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F333" t="s">
         <v>1039</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B148:C171">
-    <sortCondition ref="B148:B171"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B148:C170">
+    <sortCondition ref="B148:B170"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -63788,8 +63944,8 @@
   </sheetPr>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="81" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
